--- a/4duk_channels.xlsx
+++ b/4duk_channels.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C37"/>
+  <dimension ref="A1:C439"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1007,12 +1007,12 @@
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Полный Чипльдук</t>
+          <t>Че!</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>11000035</t>
+          <t>13000680</t>
         </is>
       </c>
     </row>
@@ -1024,12 +1024,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Electro Swing Radio</t>
+          <t>Ю</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11000041</t>
+          <t>13000678</t>
         </is>
       </c>
     </row>
@@ -1041,10 +1041,6844 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
+          <t>Муз-ТВ</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>13000717</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>36</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>ОТР</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>13000718</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>37</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Известия HD</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>13000722</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>38</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>RTVi</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>13001026</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>РБК HD</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>13000699</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>40</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Москва 24</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>13000839</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>41</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Доверие</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>13000840</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>42</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Беларусь 5 HD</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>13000738</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>43</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>UDAR HD</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>13000724</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>E (GSL)</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>13000605</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>45</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>М! Премьер HD</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>13000725</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>46</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Матч! ТВ HD</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>13000726</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>47</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>М! Футбол 1 HD</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>13000681</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>48</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>М! Футбол 2 HD</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>13000704</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>49</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>М! Футбол 3 HD</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>13000705</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>М! Арена HD</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>13000933</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>51</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>М! Боец HD</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>13000934</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>52</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>М! Игра HD</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>13000935</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>53</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>М! Планета HD</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>13000936</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>М! Страна HD</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>13000937</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>55</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>Конный мир HD</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>13000938</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>56</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>Бокс ТВ</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>13000939</t>
+        </is>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="inlineStr">
+        <is>
+          <t>57</t>
+        </is>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>Моторспорт</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>13000943</t>
+        </is>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="inlineStr">
+        <is>
+          <t>58</t>
+        </is>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>Футбол HD</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>13000990</t>
+        </is>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>MMA-TV HD</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>13000795</t>
+        </is>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="inlineStr">
+        <is>
+          <t>60</t>
+        </is>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>Eurosport 1 HD</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>13000727</t>
+        </is>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="inlineStr">
+        <is>
+          <t>61</t>
+        </is>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>Eurosport 2 HD</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>13000728</t>
+        </is>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="inlineStr">
+        <is>
+          <t>62</t>
+        </is>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>Viasat Sport HD</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>13000729</t>
+        </is>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="inlineStr">
+        <is>
+          <t>63</t>
+        </is>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>KHL</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>13000771</t>
+        </is>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="inlineStr">
+        <is>
+          <t>64</t>
+        </is>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>KHL Prime HD</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>13000775</t>
+        </is>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="inlineStr">
+        <is>
+          <t>65</t>
+        </is>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>Драйв</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>13000871</t>
+        </is>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="inlineStr">
+        <is>
+          <t>66</t>
+        </is>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>HD REX</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>13000730</t>
+        </is>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="inlineStr">
+        <is>
+          <t>67</t>
+        </is>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>Setanta Sports RU 1 HD</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>13000606</t>
+        </is>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="inlineStr">
+        <is>
+          <t>68</t>
+        </is>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>Setanta Sports RU 2 HD</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>13000607</t>
+        </is>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="inlineStr">
+        <is>
+          <t>69</t>
+        </is>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>Setanta Sports UA HD</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>13000546</t>
+        </is>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="inlineStr">
+        <is>
+          <t>70</t>
+        </is>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>Setanta Qazaqstan HD</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>13001018</t>
+        </is>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="inlineStr">
+        <is>
+          <t>71</t>
+        </is>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>Setanta Sports UA+ HD</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>13000547</t>
+        </is>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="inlineStr">
+        <is>
+          <t>72</t>
+        </is>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>НСТ</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>13000731</t>
+        </is>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="inlineStr">
+        <is>
+          <t>73</t>
+        </is>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>Киноужас HD</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>13000783</t>
+        </is>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="inlineStr">
+        <is>
+          <t>74</t>
+        </is>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>Страшное HD</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>13000770</t>
+        </is>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="inlineStr">
+        <is>
+          <t>75</t>
+        </is>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>A1 HD</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>13000845</t>
+        </is>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="inlineStr">
+        <is>
+          <t>76</t>
+        </is>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>A2 HD</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>13000846</t>
+        </is>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>AMEDIA PREMIUM HD</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>13000844</t>
+        </is>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="inlineStr">
+        <is>
+          <t>78</t>
+        </is>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>AMEDIA HIT</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>13000932</t>
+        </is>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="inlineStr">
+        <is>
+          <t>79</t>
+        </is>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>Dizi Channel HD</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>13001001</t>
+        </is>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="inlineStr">
+        <is>
+          <t>80</t>
+        </is>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>Дом кино</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>13000112</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="inlineStr">
+        <is>
+          <t>81</t>
+        </is>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>Дом кино премиум HD</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>13000732</t>
+        </is>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="inlineStr">
+        <is>
+          <t>82</t>
+        </is>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>Plan B HD</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>13000997</t>
+        </is>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="inlineStr">
+        <is>
+          <t>83</t>
+        </is>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>Хит HD</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>13000992</t>
+        </is>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="inlineStr">
+        <is>
+          <t>84</t>
+        </is>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>Про Любовь HD</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>13000991</t>
+        </is>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="inlineStr">
+        <is>
+          <t>85</t>
+        </is>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>YOSSO TV GRAND HD</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>13000947</t>
+        </is>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="inlineStr">
+        <is>
+          <t>86</t>
+        </is>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>YOSSO TV VHS HD</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>13000948</t>
+        </is>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="inlineStr">
+        <is>
+          <t>87</t>
+        </is>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>YOSSO TV KIDS HD</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>13000949</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>88</t>
+        </is>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>VB VHS Classic</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>13001183</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>89</t>
+        </is>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>YOSSO TV РУССКИЕ ФИЛЬМЫ HD</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>13000950</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>90</t>
+        </is>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>YOSSO TV СОВЕТСКИЕ ФИЛЬМЫ HD</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>13000951</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>91</t>
+        </is>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>VB Российские сериалы</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>13001186</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>92</t>
+        </is>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>YOSSO TV NEW КИНО HD</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>13000952</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>93</t>
+        </is>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>VB Назад в СССР</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>13001184</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>94</t>
+        </is>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>VB Modern Talking and Co</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>13001188</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>YOSSO TV СОЮЗМУЛЬТФИЛЬМ HD</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>13000953</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>96</t>
+        </is>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>VB Контент моего детства</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>13001189</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>97</t>
+        </is>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>VB ОСП-Студия</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>13001191</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>98</t>
+        </is>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>YOSSO TV ТРАГИЧНОЕ HD</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>13000954</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>99</t>
+        </is>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>VB Осторожно Модерн!</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>13001192</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>YOSSO TV BEST HD</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>13000955</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>YOSSO TV ADVENTURE HD</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>13000978</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>102</t>
+        </is>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>YOSSO TV ЗАБАВНОЕ HD</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>13000956</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>Кинозал Глухарь</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>13001027</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>104</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>YOSSO TV КОВБОЙСКОЕ HD</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>13000957</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>105</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>YOSSO TV ADRENALINE HD</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>13000958</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>106</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>YOSSO TV МЕЛОДРАМА HD</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>13001177</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>YOSSO TV THRILLER HD</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>13000980</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>108</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>YOSSO TV НАШЕ ДЕТСКОЕ HD</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>13001178</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>109</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>C-Marvel HD</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>13000981</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>110</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>Мужское кино</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>13000987</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>YOSSO TV DISNEY HD</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>13001179</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>Наше мужское HD</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>13000986</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>113</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>YOSSO TV NETFLIX HD</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>13001180</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>114</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>Наш Кинопоказ HD</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>13000985</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>115</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>Камеди HD</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>13000984</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>116</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>Романтичное HD</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>13000925</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>117</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>Любимое HD</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>13000924</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>118</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>Душевное HD</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>13000923</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>119</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>Cinema Космос ТВ HD</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>13000792</t>
+        </is>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>120</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>Trash HD</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>13000791</t>
+        </is>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>121</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>Синема</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>13000929</t>
+        </is>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>122</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>Мосфильм</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>13000520</t>
+        </is>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>123</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>START Air HD</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>13001022</t>
+        </is>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>124</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>Bollywood</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>13000677</t>
+        </is>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>125</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>Мосфильм HD</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>13001017</t>
+        </is>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>126</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>START World HD</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>13001023</t>
+        </is>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>127</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>FOX HD</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>13000733</t>
+        </is>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>128</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>FOX life HD</t>
+        </is>
+      </c>
+      <c r="C130" t="inlineStr">
+        <is>
+          <t>13000739</t>
+        </is>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>129</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>. red HD</t>
+        </is>
+      </c>
+      <c r="C131" t="inlineStr">
+        <is>
+          <t>13000735</t>
+        </is>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>130</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>. Sci-Fi HD</t>
+        </is>
+      </c>
+      <c r="C132" t="inlineStr">
+        <is>
+          <t>13000736</t>
+        </is>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>131</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>. black HD</t>
+        </is>
+      </c>
+      <c r="C133" t="inlineStr">
+        <is>
+          <t>13000708</t>
+        </is>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>132</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>Русский детектив</t>
+        </is>
+      </c>
+      <c r="C134" t="inlineStr">
+        <is>
+          <t>13000695</t>
+        </is>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>133</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>Русский бестселлер</t>
+        </is>
+      </c>
+      <c r="C135" t="inlineStr">
+        <is>
+          <t>13000694</t>
+        </is>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>134</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>Русский роман HD</t>
+        </is>
+      </c>
+      <c r="C136" t="inlineStr">
+        <is>
+          <t>13000692</t>
+        </is>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>135</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>Русский иллюзион HD</t>
+        </is>
+      </c>
+      <c r="C137" t="inlineStr">
+        <is>
+          <t>13000693</t>
+        </is>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>Paramount Comedy</t>
+        </is>
+      </c>
+      <c r="C138" t="inlineStr">
+        <is>
+          <t>13000670</t>
+        </is>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>137</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>BOLT HD</t>
+        </is>
+      </c>
+      <c r="C139" t="inlineStr">
+        <is>
+          <t>13000701</t>
+        </is>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>138</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>CGTN Русский HD</t>
+        </is>
+      </c>
+      <c r="C140" t="inlineStr">
+        <is>
+          <t>13000706</t>
+        </is>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>139</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>Hollywood</t>
+        </is>
+      </c>
+      <c r="C141" t="inlineStr">
+        <is>
+          <t>13000774</t>
+        </is>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>140</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>Кинопремьера HD</t>
+        </is>
+      </c>
+      <c r="C142" t="inlineStr">
+        <is>
+          <t>13000787</t>
+        </is>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>141</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>Киномикс HD</t>
+        </is>
+      </c>
+      <c r="C143" t="inlineStr">
+        <is>
+          <t>13000788</t>
+        </is>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>142</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>Киносвидание HD</t>
+        </is>
+      </c>
+      <c r="C144" t="inlineStr">
+        <is>
+          <t>13000789</t>
+        </is>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>143</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>Кинокомедия HD</t>
+        </is>
+      </c>
+      <c r="C145" t="inlineStr">
+        <is>
+          <t>13000796</t>
+        </is>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>144</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>Наше новое кино HD</t>
+        </is>
+      </c>
+      <c r="C146" t="inlineStr">
+        <is>
+          <t>13000797</t>
+        </is>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>145</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>Киносемья HD</t>
+        </is>
+      </c>
+      <c r="C147" t="inlineStr">
+        <is>
+          <t>13000811</t>
+        </is>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>146</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>Наше любимое кино</t>
+        </is>
+      </c>
+      <c r="C148" t="inlineStr">
+        <is>
+          <t>13000819</t>
+        </is>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>147</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>Шокирующее HD</t>
+        </is>
+      </c>
+      <c r="C149" t="inlineStr">
+        <is>
+          <t>13000820</t>
+        </is>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>148</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>Остросюжетное HD</t>
+        </is>
+      </c>
+      <c r="C150" t="inlineStr">
+        <is>
+          <t>13000821</t>
+        </is>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>149</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>Премиальное HD</t>
+        </is>
+      </c>
+      <c r="C151" t="inlineStr">
+        <is>
+          <t>13000822</t>
+        </is>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>150</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>Комедийное HD</t>
+        </is>
+      </c>
+      <c r="C152" t="inlineStr">
+        <is>
+          <t>13000847</t>
+        </is>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>151</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>TV1000 Русское кино HD</t>
+        </is>
+      </c>
+      <c r="C153" t="inlineStr">
+        <is>
+          <t>13000741</t>
+        </is>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>152</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>TV1000 Action HD</t>
+        </is>
+      </c>
+      <c r="C154" t="inlineStr">
+        <is>
+          <t>13000740</t>
+        </is>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>153</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>TV1000 HD</t>
+        </is>
+      </c>
+      <c r="C155" t="inlineStr">
+        <is>
+          <t>13000742</t>
+        </is>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>154</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>TV3 Film HD</t>
+        </is>
+      </c>
+      <c r="C156" t="inlineStr">
+        <is>
+          <t>13000919</t>
+        </is>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>Блокбастер HD</t>
+        </is>
+      </c>
+      <c r="C157" t="inlineStr">
+        <is>
+          <t>13000849</t>
+        </is>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>156</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>KinoJam 1 HD</t>
+        </is>
+      </c>
+      <c r="C158" t="inlineStr">
+        <is>
+          <t>13000920</t>
+        </is>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>157</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>FlixSnip HD</t>
+        </is>
+      </c>
+      <c r="C159" t="inlineStr">
+        <is>
+          <t>13000850</t>
+        </is>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>158</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>KinoJam 2 HD</t>
+        </is>
+      </c>
+      <c r="C160" t="inlineStr">
+        <is>
+          <t>13000921</t>
+        </is>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>159</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>VIP Comedy HD</t>
+        </is>
+      </c>
+      <c r="C161" t="inlineStr">
+        <is>
+          <t>13000744</t>
+        </is>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>160</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>Комедия</t>
+        </is>
+      </c>
+      <c r="C162" t="inlineStr">
+        <is>
+          <t>13000930</t>
+        </is>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>161</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>VIP Megahit HD</t>
+        </is>
+      </c>
+      <c r="C163" t="inlineStr">
+        <is>
+          <t>13000745</t>
+        </is>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>162</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>Кинопоказ HD</t>
+        </is>
+      </c>
+      <c r="C164" t="inlineStr">
+        <is>
+          <t>13000854</t>
+        </is>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>163</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>VIP Premiere HD</t>
+        </is>
+      </c>
+      <c r="C165" t="inlineStr">
+        <is>
+          <t>13000746</t>
+        </is>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>164</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>VIP Serial HD</t>
+        </is>
+      </c>
+      <c r="C166" t="inlineStr">
+        <is>
+          <t>13000743</t>
+        </is>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>165</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>Киноман</t>
+        </is>
+      </c>
+      <c r="C167" t="inlineStr">
+        <is>
+          <t>13000853</t>
+        </is>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>166</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>Про100ТВ</t>
+        </is>
+      </c>
+      <c r="C168" t="inlineStr">
+        <is>
+          <t>13000996</t>
+        </is>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>167</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>Победа HD</t>
+        </is>
+      </c>
+      <c r="C169" t="inlineStr">
+        <is>
+          <t>13000747</t>
+        </is>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>168</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>Советское кино</t>
+        </is>
+      </c>
+      <c r="C170" t="inlineStr">
+        <is>
+          <t>13000810</t>
+        </is>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>169</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>Кино ТВ HD</t>
+        </is>
+      </c>
+      <c r="C171" t="inlineStr">
+        <is>
+          <t>13000748</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>170</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>День Победы HD</t>
+        </is>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t>13000856</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>171</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>VB Спецназ-Диверсант</t>
+        </is>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t>13001185</t>
+        </is>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>172</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>Мир сериала</t>
+        </is>
+      </c>
+      <c r="C174" t="inlineStr">
+        <is>
+          <t>13000870</t>
+        </is>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>173</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>Твоё ТВ HD</t>
+        </is>
+      </c>
+      <c r="C175" t="inlineStr">
+        <is>
+          <t>13000618</t>
+        </is>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>174</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>Discovery HD</t>
+        </is>
+      </c>
+      <c r="C176" t="inlineStr">
+        <is>
+          <t>13000749</t>
+        </is>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>175</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>Discovery Science HD</t>
+        </is>
+      </c>
+      <c r="C177" t="inlineStr">
+        <is>
+          <t>13000752</t>
+        </is>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>176</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>English Club TV HD</t>
+        </is>
+      </c>
+      <c r="C178" t="inlineStr">
+        <is>
+          <t>13000751</t>
+        </is>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>177</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>History HD</t>
+        </is>
+      </c>
+      <c r="C179" t="inlineStr">
+        <is>
+          <t>13000753</t>
+        </is>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>178</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>H2 HD</t>
+        </is>
+      </c>
+      <c r="C180" t="inlineStr">
+        <is>
+          <t>13000754</t>
+        </is>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>179</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>ID Xtra HD</t>
+        </is>
+      </c>
+      <c r="C181" t="inlineStr">
+        <is>
+          <t>13000755</t>
+        </is>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>180</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>National Geographic HD</t>
+        </is>
+      </c>
+      <c r="C182" t="inlineStr">
+        <is>
+          <t>13000756</t>
+        </is>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>181</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>Nat Geo Wild HD</t>
+        </is>
+      </c>
+      <c r="C183" t="inlineStr">
+        <is>
+          <t>13000214</t>
+        </is>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>182</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>Animal Planet HD</t>
+        </is>
+      </c>
+      <c r="C184" t="inlineStr">
+        <is>
+          <t>13000806</t>
+        </is>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>183</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>RTG HD</t>
+        </is>
+      </c>
+      <c r="C185" t="inlineStr">
+        <is>
+          <t>13000757</t>
+        </is>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>Арсенал HD</t>
+        </is>
+      </c>
+      <c r="C186" t="inlineStr">
+        <is>
+          <t>13000863</t>
+        </is>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>185</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>Viasat Explore HD</t>
+        </is>
+      </c>
+      <c r="C187" t="inlineStr">
+        <is>
+          <t>13000760</t>
+        </is>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>186</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>Viasat History HD</t>
+        </is>
+      </c>
+      <c r="C188" t="inlineStr">
+        <is>
+          <t>13000761</t>
+        </is>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>187</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>RT Doc HD</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>13000868</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>188</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>Viasat Nature HD</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>13000762</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>189</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>Viasat Nature/History HD</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>13000763</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>190</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>Ocean TV</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>13000793</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>191</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>Большая Азия HD</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>13000769</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>192</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>Первый Космический HD</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>13000612</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>Живая планета</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>13000794</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>194</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>HDL</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>13000807</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>195</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Еда Премиум HD</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>13000764</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>196</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>АВТО24 HD</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>13000765</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Зал суда HD</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>13000707</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>198</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>TLC HD</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr">
+        <is>
+          <t>13000768</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>199</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>В мире животных HD</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr">
+        <is>
+          <t>13000798</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>200</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Вопросы и ответы</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr">
+        <is>
+          <t>13000801</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>201</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Охота и рыбалка</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr">
+        <is>
+          <t>13000766</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>202</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Загородная жизнь HD</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr">
+        <is>
+          <t>13000808</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>203</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Моя Планета HD</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr">
+        <is>
+          <t>13000767</t>
+        </is>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>204</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>Диалоги о рыбалке HD</t>
+        </is>
+      </c>
+      <c r="C206" t="inlineStr">
+        <is>
+          <t>13000809</t>
+        </is>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>205</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>Приключения HD</t>
+        </is>
+      </c>
+      <c r="C207" t="inlineStr">
+        <is>
+          <t>13000558</t>
+        </is>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>206</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>Поехали! HD</t>
+        </is>
+      </c>
+      <c r="C208" t="inlineStr">
+        <is>
+          <t>13000800</t>
+        </is>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>207</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>Дикая рыбалка HD</t>
+        </is>
+      </c>
+      <c r="C209" t="inlineStr">
+        <is>
+          <t>13000666</t>
+        </is>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>208</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>Дикая охота HD</t>
+        </is>
+      </c>
+      <c r="C210" t="inlineStr">
+        <is>
+          <t>13000669</t>
+        </is>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>209</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>Оружие</t>
+        </is>
+      </c>
+      <c r="C211" t="inlineStr">
+        <is>
+          <t>13000260</t>
+        </is>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>210</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>HGTV HD</t>
+        </is>
+      </c>
+      <c r="C212" t="inlineStr">
+        <is>
+          <t>13000203</t>
+        </is>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" t="inlineStr">
+        <is>
+          <t>211</t>
+        </is>
+      </c>
+      <c r="B213" t="inlineStr">
+        <is>
+          <t>Глазами туриста HD</t>
+        </is>
+      </c>
+      <c r="C213" t="inlineStr">
+        <is>
+          <t>13000238</t>
+        </is>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>212</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>Наука 2.0 HD</t>
+        </is>
+      </c>
+      <c r="C214" t="inlineStr">
+        <is>
+          <t>13000622</t>
+        </is>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" t="inlineStr">
+        <is>
+          <t>213</t>
+        </is>
+      </c>
+      <c r="B215" t="inlineStr">
+        <is>
+          <t>DTX HD</t>
+        </is>
+      </c>
+      <c r="C215" t="inlineStr">
+        <is>
+          <t>13000194</t>
+        </is>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>214</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>Мужской</t>
+        </is>
+      </c>
+      <c r="C216" t="inlineStr">
+        <is>
+          <t>13000802</t>
+        </is>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" t="inlineStr">
+        <is>
+          <t>215</t>
+        </is>
+      </c>
+      <c r="B217" t="inlineStr">
+        <is>
+          <t>История</t>
+        </is>
+      </c>
+      <c r="C217" t="inlineStr">
+        <is>
+          <t>13000815</t>
+        </is>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>Кто есть кто</t>
+        </is>
+      </c>
+      <c r="C218" t="inlineStr">
+        <is>
+          <t>13000827</t>
+        </is>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" t="inlineStr">
+        <is>
+          <t>217</t>
+        </is>
+      </c>
+      <c r="B219" t="inlineStr">
+        <is>
+          <t>Travel+Adventure HD</t>
+        </is>
+      </c>
+      <c r="C219" t="inlineStr">
+        <is>
+          <t>13000858</t>
+        </is>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>218</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>365 дней HD</t>
+        </is>
+      </c>
+      <c r="C220" t="inlineStr">
+        <is>
+          <t>13000886</t>
+        </is>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" t="inlineStr">
+        <is>
+          <t>219</t>
+        </is>
+      </c>
+      <c r="B221" t="inlineStr">
+        <is>
+          <t>Звезда Плюс HD</t>
+        </is>
+      </c>
+      <c r="C221" t="inlineStr">
+        <is>
+          <t>13000942</t>
+        </is>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>220</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>24 Техно</t>
+        </is>
+      </c>
+      <c r="C222" t="inlineStr">
+        <is>
+          <t>13000983</t>
+        </is>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" t="inlineStr">
+        <is>
+          <t>221</t>
+        </is>
+      </c>
+      <c r="B223" t="inlineStr">
+        <is>
+          <t>Театр HD</t>
+        </is>
+      </c>
+      <c r="C223" t="inlineStr">
+        <is>
+          <t>13000988</t>
+        </is>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>222</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>Ностальгия</t>
+        </is>
+      </c>
+      <c r="C224" t="inlineStr">
+        <is>
+          <t>13000786</t>
+        </is>
+      </c>
+    </row>
+    <row r="225">
+      <c r="A225" t="inlineStr">
+        <is>
+          <t>223</t>
+        </is>
+      </c>
+      <c r="B225" t="inlineStr">
+        <is>
+          <t>ZooПарк</t>
+        </is>
+      </c>
+      <c r="C225" t="inlineStr">
+        <is>
+          <t>13000989</t>
+        </is>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>224</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>Ретро</t>
+        </is>
+      </c>
+      <c r="C226" t="inlineStr">
+        <is>
+          <t>13000785</t>
+        </is>
+      </c>
+    </row>
+    <row r="227">
+      <c r="A227" t="inlineStr">
+        <is>
+          <t>225</t>
+        </is>
+      </c>
+      <c r="B227" t="inlineStr">
+        <is>
+          <t>Дикий</t>
+        </is>
+      </c>
+      <c r="C227" t="inlineStr">
+        <is>
+          <t>13000993</t>
+        </is>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>226</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>Анекдот ТВ</t>
+        </is>
+      </c>
+      <c r="C228" t="inlineStr">
+        <is>
+          <t>13000772</t>
+        </is>
+      </c>
+    </row>
+    <row r="229">
+      <c r="A229" t="inlineStr">
+        <is>
+          <t>227</t>
+        </is>
+      </c>
+      <c r="B229" t="inlineStr">
+        <is>
+          <t>Рыболов</t>
+        </is>
+      </c>
+      <c r="C229" t="inlineStr">
+        <is>
+          <t>13000994</t>
+        </is>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>228</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>Gags Network HD</t>
+        </is>
+      </c>
+      <c r="C230" t="inlineStr">
+        <is>
+          <t>13000825</t>
+        </is>
+      </c>
+    </row>
+    <row r="231">
+      <c r="A231" t="inlineStr">
+        <is>
+          <t>229</t>
+        </is>
+      </c>
+      <c r="B231" t="inlineStr">
+        <is>
+          <t>Сарафан</t>
+        </is>
+      </c>
+      <c r="C231" t="inlineStr">
+        <is>
+          <t>13000784</t>
+        </is>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>230</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>Суббота! HD</t>
+        </is>
+      </c>
+      <c r="C232" t="inlineStr">
+        <is>
+          <t>13000852</t>
+        </is>
+      </c>
+    </row>
+    <row r="233">
+      <c r="A233" t="inlineStr">
+        <is>
+          <t>231</t>
+        </is>
+      </c>
+      <c r="B233" t="inlineStr">
+        <is>
+          <t>КВН</t>
+        </is>
+      </c>
+      <c r="C233" t="inlineStr">
+        <is>
+          <t>13000085</t>
+        </is>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>232</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>Бобёр</t>
+        </is>
+      </c>
+      <c r="C234" t="inlineStr">
+        <is>
+          <t>13000235</t>
+        </is>
+      </c>
+    </row>
+    <row r="235">
+      <c r="A235" t="inlineStr">
+        <is>
+          <t>233</t>
+        </is>
+      </c>
+      <c r="B235" t="inlineStr">
+        <is>
+          <t>Тайны галактики HD</t>
+        </is>
+      </c>
+      <c r="C235" t="inlineStr">
+        <is>
+          <t>13000683</t>
+        </is>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>234</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>Усадьба</t>
+        </is>
+      </c>
+      <c r="C236" t="inlineStr">
+        <is>
+          <t>13000682</t>
+        </is>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>235</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>2x2</t>
+        </is>
+      </c>
+      <c r="C237" t="inlineStr">
+        <is>
+          <t>13000032</t>
+        </is>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>236</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>Boomerang</t>
+        </is>
+      </c>
+      <c r="C238" t="inlineStr">
+        <is>
+          <t>13000720</t>
+        </is>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>237</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>Cartoon Network</t>
+        </is>
+      </c>
+      <c r="C239" t="inlineStr">
+        <is>
+          <t>13000172</t>
+        </is>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>238</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>Советские мультфильмы</t>
+        </is>
+      </c>
+      <c r="C240" t="inlineStr">
+        <is>
+          <t>13000561</t>
+        </is>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>239</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>Gulli Girl</t>
+        </is>
+      </c>
+      <c r="C241" t="inlineStr">
+        <is>
+          <t>13000173</t>
+        </is>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>240</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>Ani</t>
+        </is>
+      </c>
+      <c r="C242" t="inlineStr">
+        <is>
+          <t>13000817</t>
+        </is>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>241</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>Nickelodeon HD</t>
+        </is>
+      </c>
+      <c r="C243" t="inlineStr">
+        <is>
+          <t>13000177</t>
+        </is>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>242</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>TiJi</t>
+        </is>
+      </c>
+      <c r="C244" t="inlineStr">
+        <is>
+          <t>13001167</t>
+        </is>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>243</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>Солнце</t>
+        </is>
+      </c>
+      <c r="C245" t="inlineStr">
+        <is>
+          <t>13000037</t>
+        </is>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>244</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>Nick Jr.</t>
+        </is>
+      </c>
+      <c r="C246" t="inlineStr">
+        <is>
+          <t>13000804</t>
+        </is>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>245</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>Disney RU</t>
+        </is>
+      </c>
+      <c r="C247" t="inlineStr">
+        <is>
+          <t>13001172</t>
+        </is>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>246</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>Кап. Фантастика HD</t>
+        </is>
+      </c>
+      <c r="C248" t="inlineStr">
+        <is>
+          <t>13000614</t>
+        </is>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>247</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>Nickelodeon</t>
+        </is>
+      </c>
+      <c r="C249" t="inlineStr">
+        <is>
+          <t>13000805</t>
+        </is>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>248</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>Мульт HD</t>
+        </is>
+      </c>
+      <c r="C250" t="inlineStr">
+        <is>
+          <t>13000181</t>
+        </is>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>249</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>CTC Kids HD</t>
+        </is>
+      </c>
+      <c r="C251" t="inlineStr">
+        <is>
+          <t>13000818</t>
+        </is>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>250</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>JimJam</t>
+        </is>
+      </c>
+      <c r="C252" t="inlineStr">
+        <is>
+          <t>13000859</t>
+        </is>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>251</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>О!</t>
+        </is>
+      </c>
+      <c r="C253" t="inlineStr">
+        <is>
+          <t>13000187</t>
+        </is>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>252</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>Мультимузыка</t>
+        </is>
+      </c>
+      <c r="C254" t="inlineStr">
+        <is>
+          <t>13000866</t>
+        </is>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>253</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>FAN HD</t>
+        </is>
+      </c>
+      <c r="C255" t="inlineStr">
+        <is>
+          <t>13000055</t>
+        </is>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>254</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>Мультиландия</t>
+        </is>
+      </c>
+      <c r="C256" t="inlineStr">
+        <is>
+          <t>13000867</t>
+        </is>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>255</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>Рыжий</t>
+        </is>
+      </c>
+      <c r="C257" t="inlineStr">
+        <is>
+          <t>13000578</t>
+        </is>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>Радость моя</t>
+        </is>
+      </c>
+      <c r="C258" t="inlineStr">
+        <is>
+          <t>13000696</t>
+        </is>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>257</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>Baby TV</t>
+        </is>
+      </c>
+      <c r="C259" t="inlineStr">
+        <is>
+          <t>13000941</t>
+        </is>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>258</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>Уникум!</t>
+        </is>
+      </c>
+      <c r="C260" t="inlineStr">
+        <is>
+          <t>13000865</t>
+        </is>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>259</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>ПЕРВЫЙ +1</t>
+        </is>
+      </c>
+      <c r="C261" t="inlineStr">
+        <is>
+          <t>13000876</t>
+        </is>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>260</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>ПЕРВЫЙ +2</t>
+        </is>
+      </c>
+      <c r="C262" t="inlineStr">
+        <is>
+          <t>13000831</t>
+        </is>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>ПЕРВЫЙ +3</t>
+        </is>
+      </c>
+      <c r="C263" t="inlineStr">
+        <is>
+          <t>13000877</t>
+        </is>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>262</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>ПЕРВЫЙ +4</t>
+        </is>
+      </c>
+      <c r="C264" t="inlineStr">
+        <is>
+          <t>13000484</t>
+        </is>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>263</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>ПЕРВЫЙ +5</t>
+        </is>
+      </c>
+      <c r="C265" t="inlineStr">
+        <is>
+          <t>13000878</t>
+        </is>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>264</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>ПЕРВЫЙ +7</t>
+        </is>
+      </c>
+      <c r="C266" t="inlineStr">
+        <is>
+          <t>13000832</t>
+        </is>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>265</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>ПЕРВЫЙ +8</t>
+        </is>
+      </c>
+      <c r="C267" t="inlineStr">
+        <is>
+          <t>13000879</t>
+        </is>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>266</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>РОССИЯ-1 +1</t>
+        </is>
+      </c>
+      <c r="C268" t="inlineStr">
+        <is>
+          <t>13000010</t>
+        </is>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>267</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>РОССИЯ-1 +2</t>
+        </is>
+      </c>
+      <c r="C269" t="inlineStr">
+        <is>
+          <t>13000493</t>
+        </is>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>268</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>РОССИЯ-1 +4</t>
+        </is>
+      </c>
+      <c r="C270" t="inlineStr">
+        <is>
+          <t>13000494</t>
+        </is>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>269</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>РОССИЯ-1 +9</t>
+        </is>
+      </c>
+      <c r="C271" t="inlineStr">
+        <is>
+          <t>13000495</t>
+        </is>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>НТВ +2</t>
+        </is>
+      </c>
+      <c r="C272" t="inlineStr">
+        <is>
+          <t>13000829</t>
+        </is>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>271</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>НТВ +7</t>
+        </is>
+      </c>
+      <c r="C273" t="inlineStr">
+        <is>
+          <t>13000830</t>
+        </is>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>272</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>ТНТ +2</t>
+        </is>
+      </c>
+      <c r="C274" t="inlineStr">
+        <is>
+          <t>13000861</t>
+        </is>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>273</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>ТНТ +4</t>
+        </is>
+      </c>
+      <c r="C275" t="inlineStr">
+        <is>
+          <t>13000882</t>
+        </is>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>ТНТ +7</t>
+        </is>
+      </c>
+      <c r="C276" t="inlineStr">
+        <is>
+          <t>13000883</t>
+        </is>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>275</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>СТС +4</t>
+        </is>
+      </c>
+      <c r="C277" t="inlineStr">
+        <is>
+          <t>13000880</t>
+        </is>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>276</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>Пятница! +4</t>
+        </is>
+      </c>
+      <c r="C278" t="inlineStr">
+        <is>
+          <t>13000884</t>
+        </is>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>277</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>Пятница! +6</t>
+        </is>
+      </c>
+      <c r="C279" t="inlineStr">
+        <is>
+          <t>13000885</t>
+        </is>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>278</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>RU.TV HD</t>
+        </is>
+      </c>
+      <c r="C280" t="inlineStr">
+        <is>
+          <t>13000154</t>
+        </is>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>279</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>1HD Music Television</t>
+        </is>
+      </c>
+      <c r="C281" t="inlineStr">
+        <is>
+          <t>13000675</t>
+        </is>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>280</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>Europa Plus TV HD</t>
+        </is>
+      </c>
+      <c r="C282" t="inlineStr">
+        <is>
+          <t>13000812</t>
+        </is>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>281</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>Bridge Classic</t>
+        </is>
+      </c>
+      <c r="C283" t="inlineStr">
+        <is>
+          <t>13000141</t>
+        </is>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>282</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>Russian MusicBox HD</t>
+        </is>
+      </c>
+      <c r="C284" t="inlineStr">
+        <is>
+          <t>13000813</t>
+        </is>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>283</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>VB Dance Hits of 90s</t>
+        </is>
+      </c>
+      <c r="C285" t="inlineStr">
+        <is>
+          <t>13001181</t>
+        </is>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>284</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>Bridge Hits</t>
+        </is>
+      </c>
+      <c r="C286" t="inlineStr">
+        <is>
+          <t>13000143</t>
+        </is>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>285</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>VB Eurodance Hits 90s</t>
+        </is>
+      </c>
+      <c r="C287" t="inlineStr">
+        <is>
+          <t>13001182</t>
+        </is>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>286</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>Bridge Русский Хит</t>
+        </is>
+      </c>
+      <c r="C288" t="inlineStr">
+        <is>
+          <t>13000144</t>
+        </is>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>287</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>VB Русская попса 80х-90х</t>
+        </is>
+      </c>
+      <c r="C289" t="inlineStr">
+        <is>
+          <t>13001187</t>
+        </is>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>Bridge Deluxe HD</t>
+        </is>
+      </c>
+      <c r="C290" t="inlineStr">
+        <is>
+          <t>13000142</t>
+        </is>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>289</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>4ever Music HD</t>
+        </is>
+      </c>
+      <c r="C291" t="inlineStr">
+        <is>
+          <t>13000833</t>
+        </is>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>290</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>VB Best Live Performances</t>
+        </is>
+      </c>
+      <c r="C292" t="inlineStr">
+        <is>
+          <t>13001190</t>
+        </is>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>291</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>Bridge</t>
+        </is>
+      </c>
+      <c r="C293" t="inlineStr">
+        <is>
+          <t>13000140</t>
+        </is>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>292</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>Bridge Rock</t>
+        </is>
+      </c>
+      <c r="C294" t="inlineStr">
+        <is>
+          <t>13001008</t>
+        </is>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>293</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>VB MTV OLD</t>
+        </is>
+      </c>
+      <c r="C295" t="inlineStr">
+        <is>
+          <t>13001193</t>
+        </is>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>294</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>Bridge Шлягер</t>
+        </is>
+      </c>
+      <c r="C296" t="inlineStr">
+        <is>
+          <t>13000619</t>
+        </is>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>295</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>VB Russian Dance Hits of 90</t>
+        </is>
+      </c>
+      <c r="C297" t="inlineStr">
+        <is>
+          <t>13001194</t>
+        </is>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>296</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>VB Greatest Hits</t>
+        </is>
+      </c>
+      <c r="C298" t="inlineStr">
+        <is>
+          <t>13001195</t>
+        </is>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>297</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>VB Romantic and Ballads</t>
+        </is>
+      </c>
+      <c r="C299" t="inlineStr">
+        <is>
+          <t>13001196</t>
+        </is>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>298</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>Музыка Первого</t>
+        </is>
+      </c>
+      <c r="C300" t="inlineStr">
+        <is>
+          <t>13000790</t>
+        </is>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>299</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>РОК НАРЯД HD</t>
+        </is>
+      </c>
+      <c r="C301" t="inlineStr">
+        <is>
+          <t>13000658</t>
+        </is>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>300</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>MCM-TOP</t>
+        </is>
+      </c>
+      <c r="C302" t="inlineStr">
+        <is>
+          <t>13000803</t>
+        </is>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>301</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>MTV 80's</t>
+        </is>
+      </c>
+      <c r="C303" t="inlineStr">
+        <is>
+          <t>13000158</t>
+        </is>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>302</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>О!2</t>
+        </is>
+      </c>
+      <c r="C304" t="inlineStr">
+        <is>
+          <t>13000814</t>
+        </is>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>303</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>MTV 90's</t>
+        </is>
+      </c>
+      <c r="C305" t="inlineStr">
+        <is>
+          <t>13000151</t>
+        </is>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>304</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>MTV Club</t>
+        </is>
+      </c>
+      <c r="C306" t="inlineStr">
+        <is>
+          <t>13000147</t>
+        </is>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>305</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>Clubbing TV HD</t>
+        </is>
+      </c>
+      <c r="C307" t="inlineStr">
+        <is>
+          <t>13000837</t>
+        </is>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>306</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>MTV Hits</t>
+        </is>
+      </c>
+      <c r="C308" t="inlineStr">
+        <is>
+          <t>13000149</t>
+        </is>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>307</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>Жара HD</t>
+        </is>
+      </c>
+      <c r="C309" t="inlineStr">
+        <is>
+          <t>13000860</t>
+        </is>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>308</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>iConcerts HD</t>
+        </is>
+      </c>
+      <c r="C310" t="inlineStr">
+        <is>
+          <t>13000944</t>
+        </is>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>309</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Stingray CMusic HD</t>
+        </is>
+      </c>
+      <c r="C311" t="inlineStr">
+        <is>
+          <t>13000945</t>
+        </is>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>310</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>MTV 00's</t>
+        </is>
+      </c>
+      <c r="C312" t="inlineStr">
+        <is>
+          <t>13000159</t>
+        </is>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>311</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>ТНТ Music HD</t>
+        </is>
+      </c>
+      <c r="C313" t="inlineStr">
+        <is>
+          <t>13000685</t>
+        </is>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>312</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Шансон-ТВ</t>
+        </is>
+      </c>
+      <c r="C314" t="inlineStr">
+        <is>
+          <t>13000679</t>
+        </is>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>313</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Жар Птица</t>
+        </is>
+      </c>
+      <c r="C315" t="inlineStr">
+        <is>
+          <t>13000928</t>
+        </is>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>314</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Karloson TV Том и Джерри HD</t>
+        </is>
+      </c>
+      <c r="C316" t="inlineStr">
+        <is>
+          <t>13000977</t>
+        </is>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>315</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Karloson TV Чёрный плащ HD</t>
+        </is>
+      </c>
+      <c r="C317" t="inlineStr">
+        <is>
+          <t>13000982</t>
+        </is>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>316</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>VIP Comedy HD CEE</t>
+        </is>
+      </c>
+      <c r="C318" t="inlineStr">
+        <is>
+          <t>13001030</t>
+        </is>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>317</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>VIP Megahit HD CEE</t>
+        </is>
+      </c>
+      <c r="C319" t="inlineStr">
+        <is>
+          <t>13001031</t>
+        </is>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>318</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>VIP Premiere HD CEE</t>
+        </is>
+      </c>
+      <c r="C320" t="inlineStr">
+        <is>
+          <t>13001032</t>
+        </is>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>319</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Тайна</t>
+        </is>
+      </c>
+      <c r="C321" t="inlineStr">
+        <is>
+          <t>13001033</t>
+        </is>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>320</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>C-Cartoon HD</t>
+        </is>
+      </c>
+      <c r="C322" t="inlineStr">
+        <is>
+          <t>13001035</t>
+        </is>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>321</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>C-Inquest HD</t>
+        </is>
+      </c>
+      <c r="C323" t="inlineStr">
+        <is>
+          <t>13001036</t>
+        </is>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>322</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>C-Comedy HD</t>
+        </is>
+      </c>
+      <c r="C324" t="inlineStr">
+        <is>
+          <t>13001037</t>
+        </is>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>323</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>YOSSO TV MUSIC HITS HD</t>
+        </is>
+      </c>
+      <c r="C325" t="inlineStr">
+        <is>
+          <t>13001038</t>
+        </is>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>324</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>YOSSO TV OBLIVION HD</t>
+        </is>
+      </c>
+      <c r="C326" t="inlineStr">
+        <is>
+          <t>13001039</t>
+        </is>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>325</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Рен ТВ (+4)</t>
+        </is>
+      </c>
+      <c r="C327" t="inlineStr">
+        <is>
+          <t>13001041</t>
+        </is>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>326</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Рен ТВ (+7)</t>
+        </is>
+      </c>
+      <c r="C328" t="inlineStr">
+        <is>
+          <t>13001042</t>
+        </is>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>327</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>TV1000 World Kino</t>
+        </is>
+      </c>
+      <c r="C329" t="inlineStr">
+        <is>
+          <t>13001043</t>
+        </is>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>328</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>TV1000 CEE HD</t>
+        </is>
+      </c>
+      <c r="C330" t="inlineStr">
+        <is>
+          <t>13001044</t>
+        </is>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>329</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>TV1000 Action CEE HD</t>
+        </is>
+      </c>
+      <c r="C331" t="inlineStr">
+        <is>
+          <t>13001045</t>
+        </is>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>330</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Футбольный HD</t>
+        </is>
+      </c>
+      <c r="C332" t="inlineStr">
+        <is>
+          <t>13001046</t>
+        </is>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>331</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Хоккейный HD</t>
+        </is>
+      </c>
+      <c r="C333" t="inlineStr">
+        <is>
+          <t>13001047</t>
+        </is>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>332</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Спортивный HD</t>
+        </is>
+      </c>
+      <c r="C334" t="inlineStr">
+        <is>
+          <t>13001048</t>
+        </is>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>333</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Синема HD</t>
+        </is>
+      </c>
+      <c r="C335" t="inlineStr">
+        <is>
+          <t>13001049</t>
+        </is>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>334</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Kernel TV Леди Баг HD</t>
+        </is>
+      </c>
+      <c r="C336" t="inlineStr">
+        <is>
+          <t>13001052</t>
+        </is>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>335</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Kernel TV Маша и Медведь HD</t>
+        </is>
+      </c>
+      <c r="C337" t="inlineStr">
+        <is>
+          <t>13001053</t>
+        </is>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>336</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Kernel TV Драконы и всадники Олуха HD</t>
+        </is>
+      </c>
+      <c r="C338" t="inlineStr">
+        <is>
+          <t>13001054</t>
+        </is>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>337</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Kernel TV Царевны HD</t>
+        </is>
+      </c>
+      <c r="C339" t="inlineStr">
+        <is>
+          <t>13001055</t>
+        </is>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>338</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Kernel TV Человек-паук 2012 HD</t>
+        </is>
+      </c>
+      <c r="C340" t="inlineStr">
+        <is>
+          <t>13001056</t>
+        </is>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>339</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>ПЕРВЫЙ +6</t>
+        </is>
+      </c>
+      <c r="C341" t="inlineStr">
+        <is>
+          <t>13001057</t>
+        </is>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>340</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Kernel TV Финес и Ферб HD</t>
+        </is>
+      </c>
+      <c r="C342" t="inlineStr">
+        <is>
+          <t>13001058</t>
+        </is>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>341</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Kernel TV Люк - путешественник во времени HD</t>
+        </is>
+      </c>
+      <c r="C343" t="inlineStr">
+        <is>
+          <t>13001059</t>
+        </is>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>342</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Kernel TV Смешарики HD</t>
+        </is>
+      </c>
+      <c r="C344" t="inlineStr">
+        <is>
+          <t>13001060</t>
+        </is>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>343</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Kernel TV Команда Турбо HD</t>
+        </is>
+      </c>
+      <c r="C345" t="inlineStr">
+        <is>
+          <t>13001061</t>
+        </is>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>344</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Kernel TV Гравити Фолз HD</t>
+        </is>
+      </c>
+      <c r="C346" t="inlineStr">
+        <is>
+          <t>13001063</t>
+        </is>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>345</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Kernel TV Фиксики HD</t>
+        </is>
+      </c>
+      <c r="C347" t="inlineStr">
+        <is>
+          <t>13001064</t>
+        </is>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>346</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Kernel TV Лило и Стич HD</t>
+        </is>
+      </c>
+      <c r="C348" t="inlineStr">
+        <is>
+          <t>13001065</t>
+        </is>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>347</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Kernel TV Том и Джерри HD</t>
+        </is>
+      </c>
+      <c r="C349" t="inlineStr">
+        <is>
+          <t>13001066</t>
+        </is>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>348</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Kernel TV Три кота HD</t>
+        </is>
+      </c>
+      <c r="C350" t="inlineStr">
+        <is>
+          <t>13001067</t>
+        </is>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>349</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Kernel TV Футурама HD</t>
+        </is>
+      </c>
+      <c r="C351" t="inlineStr">
+        <is>
+          <t>13001070</t>
+        </is>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>350</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Тип-Топ HD</t>
+        </is>
+      </c>
+      <c r="C352" t="inlineStr">
+        <is>
+          <t>13001071</t>
+        </is>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>351</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>Ю (+2)</t>
+        </is>
+      </c>
+      <c r="C353" t="inlineStr">
+        <is>
+          <t>13001073</t>
+        </is>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>352</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Ю (+4)</t>
+        </is>
+      </c>
+      <c r="C354" t="inlineStr">
+        <is>
+          <t>13001074</t>
+        </is>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>353</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Ю (+7)</t>
+        </is>
+      </c>
+      <c r="C355" t="inlineStr">
+        <is>
+          <t>13001075</t>
+        </is>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>354</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Первый канал HD (+4)</t>
+        </is>
+      </c>
+      <c r="C356" t="inlineStr">
+        <is>
+          <t>13001076</t>
+        </is>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>355</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Сваты 24/7</t>
+        </is>
+      </c>
+      <c r="C357" t="inlineStr">
+        <is>
+          <t>13001077</t>
+        </is>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>356</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>НТВ Хит</t>
+        </is>
+      </c>
+      <c r="C358" t="inlineStr">
+        <is>
+          <t>13001078</t>
+        </is>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>357</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>НТВ Стиль</t>
+        </is>
+      </c>
+      <c r="C359" t="inlineStr">
+        <is>
+          <t>13001079</t>
+        </is>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>358</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>НТВ Сериал</t>
+        </is>
+      </c>
+      <c r="C360" t="inlineStr">
+        <is>
+          <t>13001080</t>
+        </is>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>359</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>НТВ Право</t>
+        </is>
+      </c>
+      <c r="C361" t="inlineStr">
+        <is>
+          <t>13001081</t>
+        </is>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>360</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Filmzone HD</t>
+        </is>
+      </c>
+      <c r="C362" t="inlineStr">
+        <is>
+          <t>13001082</t>
+        </is>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>361</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Filmzone+ HD</t>
+        </is>
+      </c>
+      <c r="C363" t="inlineStr">
+        <is>
+          <t>13001083</t>
+        </is>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>362</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Мир баскетбола</t>
+        </is>
+      </c>
+      <c r="C364" t="inlineStr">
+        <is>
+          <t>13001084</t>
+        </is>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>363</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Еврокино</t>
+        </is>
+      </c>
+      <c r="C365" t="inlineStr">
+        <is>
+          <t>13001085</t>
+        </is>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>364</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Старт HD</t>
+        </is>
+      </c>
+      <c r="C366" t="inlineStr">
+        <is>
+          <t>13001086</t>
+        </is>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>365</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Viasat Explore CEE HD</t>
+        </is>
+      </c>
+      <c r="C367" t="inlineStr">
+        <is>
+          <t>13001087</t>
+        </is>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>Food Network HD</t>
+        </is>
+      </c>
+      <c r="C368" t="inlineStr">
+        <is>
+          <t>13001090</t>
+        </is>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>367</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>Доктор</t>
+        </is>
+      </c>
+      <c r="C369" t="inlineStr">
+        <is>
+          <t>13001091</t>
+        </is>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>368</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>Индия</t>
+        </is>
+      </c>
+      <c r="C370" t="inlineStr">
+        <is>
+          <t>13001092</t>
+        </is>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>369</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>NHL Network HD</t>
+        </is>
+      </c>
+      <c r="C371" t="inlineStr">
+        <is>
+          <t>13001093</t>
+        </is>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>370</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>Домашний Int.</t>
+        </is>
+      </c>
+      <c r="C372" t="inlineStr">
+        <is>
+          <t>13001094</t>
+        </is>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>371</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>СуперГерои</t>
+        </is>
+      </c>
+      <c r="C373" t="inlineStr">
+        <is>
+          <t>13001095</t>
+        </is>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>372</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>Fast Fun Box HD</t>
+        </is>
+      </c>
+      <c r="C374" t="inlineStr">
+        <is>
+          <t>13001096</t>
+        </is>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>373</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>Индийское кино</t>
+        </is>
+      </c>
+      <c r="C375" t="inlineStr">
+        <is>
+          <t>13001097</t>
+        </is>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>374</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>Наше HD</t>
+        </is>
+      </c>
+      <c r="C376" t="inlineStr">
+        <is>
+          <t>13001098</t>
+        </is>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>BBC World News HD</t>
+        </is>
+      </c>
+      <c r="C377" t="inlineStr">
+        <is>
+          <t>13001099</t>
+        </is>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>376</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>Живая природа HD</t>
+        </is>
+      </c>
+      <c r="C378" t="inlineStr">
+        <is>
+          <t>13001100</t>
+        </is>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>377</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>Лёва HD</t>
+        </is>
+      </c>
+      <c r="C379" t="inlineStr">
+        <is>
+          <t>13001101</t>
+        </is>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>378</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>Song TV Russia HD</t>
+        </is>
+      </c>
+      <c r="C380" t="inlineStr">
+        <is>
+          <t>13001102</t>
+        </is>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>379</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>Disney Junior</t>
+        </is>
+      </c>
+      <c r="C381" t="inlineStr">
+        <is>
+          <t>13001103</t>
+        </is>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>380</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>Пингвин</t>
+        </is>
+      </c>
+      <c r="C382" t="inlineStr">
+        <is>
+          <t>13001104</t>
+        </is>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>381</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>Еда</t>
+        </is>
+      </c>
+      <c r="C383" t="inlineStr">
+        <is>
+          <t>13001105</t>
+        </is>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>382</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>Родное кино</t>
+        </is>
+      </c>
+      <c r="C384" t="inlineStr">
+        <is>
+          <t>13001106</t>
+        </is>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>383</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>Кинохит HD</t>
+        </is>
+      </c>
+      <c r="C385" t="inlineStr">
+        <is>
+          <t>13001107</t>
+        </is>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>384</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>Зоо ТВ</t>
+        </is>
+      </c>
+      <c r="C386" t="inlineStr">
+        <is>
+          <t>13001108</t>
+        </is>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>385</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>Balticum Platinum HD</t>
+        </is>
+      </c>
+      <c r="C387" t="inlineStr">
+        <is>
+          <t>13001109</t>
+        </is>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>386</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>Живи Активно HD</t>
+        </is>
+      </c>
+      <c r="C388" t="inlineStr">
+        <is>
+          <t>13001110</t>
+        </is>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>387</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>Живи! HD</t>
+        </is>
+      </c>
+      <c r="C389" t="inlineStr">
+        <is>
+          <t>13001111</t>
+        </is>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>388</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>Карусель HD</t>
+        </is>
+      </c>
+      <c r="C390" t="inlineStr">
+        <is>
+          <t>13001112</t>
+        </is>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>389</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>Classic Music HD</t>
+        </is>
+      </c>
+      <c r="C391" t="inlineStr">
+        <is>
+          <t>13001113</t>
+        </is>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>390</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>9 канал Израиль</t>
+        </is>
+      </c>
+      <c r="C392" t="inlineStr">
+        <is>
+          <t>13001118</t>
+        </is>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>391</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>Nicktoons</t>
+        </is>
+      </c>
+      <c r="C393" t="inlineStr">
+        <is>
+          <t>13001119</t>
+        </is>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>392</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>ТНТ Int</t>
+        </is>
+      </c>
+      <c r="C394" t="inlineStr">
+        <is>
+          <t>13001120</t>
+        </is>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>393</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>Дорама HD</t>
+        </is>
+      </c>
+      <c r="C395" t="inlineStr">
+        <is>
+          <t>13001121</t>
+        </is>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>394</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>Shot TV</t>
+        </is>
+      </c>
+      <c r="C396" t="inlineStr">
+        <is>
+          <t>13001122</t>
+        </is>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>395</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>Filmbox</t>
+        </is>
+      </c>
+      <c r="C397" t="inlineStr">
+        <is>
+          <t>13001123</t>
+        </is>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>396</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>Иллюзион+ HD</t>
+        </is>
+      </c>
+      <c r="C398" t="inlineStr">
+        <is>
+          <t>13001124</t>
+        </is>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>397</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>Киносерия HD</t>
+        </is>
+      </c>
+      <c r="C399" t="inlineStr">
+        <is>
+          <t>13001125</t>
+        </is>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>398</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>AIVA HD</t>
+        </is>
+      </c>
+      <c r="C400" t="inlineStr">
+        <is>
+          <t>13001126</t>
+        </is>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>399</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>Epic Drama HD</t>
+        </is>
+      </c>
+      <c r="C401" t="inlineStr">
+        <is>
+          <t>13001128</t>
+        </is>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>400</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>MyZenTV HD</t>
+        </is>
+      </c>
+      <c r="C402" t="inlineStr">
+        <is>
+          <t>13001129</t>
+        </is>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>401</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>MTV Live HD</t>
+        </is>
+      </c>
+      <c r="C403" t="inlineStr">
+        <is>
+          <t>13001133</t>
+        </is>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>402</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>Da Vinci</t>
+        </is>
+      </c>
+      <c r="C404" t="inlineStr">
+        <is>
+          <t>13001134</t>
+        </is>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>403</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>АВТО Плюс HD</t>
+        </is>
+      </c>
+      <c r="C405" t="inlineStr">
+        <is>
+          <t>13001135</t>
+        </is>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>404</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Кухня ТВ HD</t>
+        </is>
+      </c>
+      <c r="C406" t="inlineStr">
+        <is>
+          <t>13001137</t>
+        </is>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>405</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Travel Channel HD</t>
+        </is>
+      </c>
+      <c r="C407" t="inlineStr">
+        <is>
+          <t>13001138</t>
+        </is>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>406</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Viva Russia HD</t>
+        </is>
+      </c>
+      <c r="C408" t="inlineStr">
+        <is>
+          <t>13001141</t>
+        </is>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>407</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Hollywood HD</t>
+        </is>
+      </c>
+      <c r="C409" t="inlineStr">
+        <is>
+          <t>13001142</t>
+        </is>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>408</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Chiplduk Барбоскины</t>
+        </is>
+      </c>
+      <c r="C410" t="inlineStr">
+        <is>
+          <t>13001143</t>
+        </is>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>409</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>C-Live HD</t>
+        </is>
+      </c>
+      <c r="C411" t="inlineStr">
+        <is>
+          <t>13001144</t>
+        </is>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>410</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Kernel TV За гранью HD</t>
+        </is>
+      </c>
+      <c r="C412" t="inlineStr">
+        <is>
+          <t>13001145</t>
+        </is>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>411</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Kernel TV Сверхьестественное HD</t>
+        </is>
+      </c>
+      <c r="C413" t="inlineStr">
+        <is>
+          <t>13001146</t>
+        </is>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>412</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Kernel TV Во все тяжкие HD</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>13001147</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>413</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Kernel TV Бумажный дом HD</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>13001148</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>414</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Karloson TV Губка Боб HD</t>
+        </is>
+      </c>
+      <c r="C416" t="inlineStr">
+        <is>
+          <t>13001149</t>
+        </is>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>415</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Karloson TV Щенячий Патруль HD</t>
+        </is>
+      </c>
+      <c r="C417" t="inlineStr">
+        <is>
+          <t>13001150</t>
+        </is>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>416</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Karloson TV Интерны HD</t>
+        </is>
+      </c>
+      <c r="C418" t="inlineStr">
+        <is>
+          <t>13001151</t>
+        </is>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>417</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Karloson TV My Little Pony HD</t>
+        </is>
+      </c>
+      <c r="C419" t="inlineStr">
+        <is>
+          <t>13001152</t>
+        </is>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>418</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Karloson TV Супер-крылья Джетт HD</t>
+        </is>
+      </c>
+      <c r="C420" t="inlineStr">
+        <is>
+          <t>13001153</t>
+        </is>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>419</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Karloson TV Утиные истории HD</t>
+        </is>
+      </c>
+      <c r="C421" t="inlineStr">
+        <is>
+          <t>13001154</t>
+        </is>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>420</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Karloson TV Симпсоны HD</t>
+        </is>
+      </c>
+      <c r="C422" t="inlineStr">
+        <is>
+          <t>13001155</t>
+        </is>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>421</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Karloson TV Чип и Дейл HD</t>
+        </is>
+      </c>
+      <c r="C423" t="inlineStr">
+        <is>
+          <t>13001156</t>
+        </is>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>422</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Karloson TV Южный Парк HD</t>
+        </is>
+      </c>
+      <c r="C424" t="inlineStr">
+        <is>
+          <t>13001157</t>
+        </is>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>423</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>М! Футбол 1 orig</t>
+        </is>
+      </c>
+      <c r="C425" t="inlineStr">
+        <is>
+          <t>13001158</t>
+        </is>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>424</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>М! Футбол 2 orig</t>
+        </is>
+      </c>
+      <c r="C426" t="inlineStr">
+        <is>
+          <t>13001159</t>
+        </is>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>425</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>М! Футбол 3 orig</t>
+        </is>
+      </c>
+      <c r="C427" t="inlineStr">
+        <is>
+          <t>13001160</t>
+        </is>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>426</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>Матч! orig</t>
+        </is>
+      </c>
+      <c r="C428" t="inlineStr">
+        <is>
+          <t>13001165</t>
+        </is>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>427</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>М! Премьер orig</t>
+        </is>
+      </c>
+      <c r="C429" t="inlineStr">
+        <is>
+          <t>13001166</t>
+        </is>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>428</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>Kernel TV Буба HD</t>
+        </is>
+      </c>
+      <c r="C430" t="inlineStr">
+        <is>
+          <t>13001168</t>
+        </is>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>429</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>Успех</t>
+        </is>
+      </c>
+      <c r="C431" t="inlineStr">
+        <is>
+          <t>13001169</t>
+        </is>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>430</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>Охотник и Рыболов HD</t>
+        </is>
+      </c>
+      <c r="C432" t="inlineStr">
+        <is>
+          <t>13001170</t>
+        </is>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>431</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>ducktv HD</t>
+        </is>
+      </c>
+      <c r="C433" t="inlineStr">
+        <is>
+          <t>13001173</t>
+        </is>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>432</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>KIDS TV HD</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>13001174</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>CuriosityStream HD</t>
+        </is>
+      </c>
+      <c r="C435" t="inlineStr">
+        <is>
+          <t>13001175</t>
+        </is>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>434</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>Food Bloggers TV</t>
+        </is>
+      </c>
+      <c r="C436" t="inlineStr">
+        <is>
+          <t>13001176</t>
+        </is>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>435</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Полный Чипльдук</t>
+        </is>
+      </c>
+      <c r="C437" t="inlineStr">
+        <is>
+          <t>11000035</t>
+        </is>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>436</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Electro Swing Radio</t>
+        </is>
+      </c>
+      <c r="C438" t="inlineStr">
+        <is>
+          <t>11000041</t>
+        </is>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>437</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
           <t>Локальный IGMP</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C439" t="inlineStr">
         <is>
           <t>11000048</t>
         </is>

--- a/4duk_channels.xlsx
+++ b/4duk_channels.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C439"/>
+  <dimension ref="A1:C434"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1687,7 +1687,7 @@
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Киноужас HD</t>
+          <t>К-Ужас HD</t>
         </is>
       </c>
       <c r="C75" t="inlineStr">
@@ -2758,7 +2758,7 @@
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Paramount Comedy</t>
+          <t>Comedy Central</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
@@ -2826,7 +2826,7 @@
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Кинопремьера HD</t>
+          <t>К-Премьера HD</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
@@ -2860,7 +2860,7 @@
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Киносвидание HD</t>
+          <t>К-Свидание HD</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
@@ -2911,7 +2911,7 @@
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Киносемья HD</t>
+          <t>К-Семья HD</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
@@ -3064,12 +3064,12 @@
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>TV3 Film HD</t>
+          <t>Блокбастер HD</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>13000919</t>
+          <t>13000849</t>
         </is>
       </c>
     </row>
@@ -3081,12 +3081,12 @@
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Блокбастер HD</t>
+          <t>KinoJam 1 HD</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>13000849</t>
+          <t>13000920</t>
         </is>
       </c>
     </row>
@@ -3098,12 +3098,12 @@
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>KinoJam 1 HD</t>
+          <t>FlixSnip HD</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>13000920</t>
+          <t>13000850</t>
         </is>
       </c>
     </row>
@@ -3115,12 +3115,12 @@
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>FlixSnip HD</t>
+          <t>KinoJam 2 HD</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>13000850</t>
+          <t>13000921</t>
         </is>
       </c>
     </row>
@@ -3132,12 +3132,12 @@
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>KinoJam 2 HD</t>
+          <t>VIP Comedy HD</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>13000921</t>
+          <t>13000744</t>
         </is>
       </c>
     </row>
@@ -3149,12 +3149,12 @@
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>VIP Comedy HD</t>
+          <t>Комедия</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>13000744</t>
+          <t>13000930</t>
         </is>
       </c>
     </row>
@@ -3166,12 +3166,12 @@
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Комедия</t>
+          <t>VIP Megahit HD</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>13000930</t>
+          <t>13000745</t>
         </is>
       </c>
     </row>
@@ -3183,12 +3183,12 @@
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>VIP Megahit HD</t>
+          <t>Кинопоказ HD</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>13000745</t>
+          <t>13000854</t>
         </is>
       </c>
     </row>
@@ -3200,12 +3200,12 @@
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Кинопоказ HD</t>
+          <t>VIP Premiere HD</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>13000854</t>
+          <t>13000746</t>
         </is>
       </c>
     </row>
@@ -3217,12 +3217,12 @@
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>VIP Premiere HD</t>
+          <t>VIP Serial HD</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>13000746</t>
+          <t>13000743</t>
         </is>
       </c>
     </row>
@@ -3234,12 +3234,12 @@
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>VIP Serial HD</t>
+          <t>Киноман</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>13000743</t>
+          <t>13000853</t>
         </is>
       </c>
     </row>
@@ -3251,12 +3251,12 @@
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Киноман</t>
+          <t>Про100ТВ</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>13000853</t>
+          <t>13000996</t>
         </is>
       </c>
     </row>
@@ -3268,12 +3268,12 @@
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Про100ТВ</t>
+          <t>Победа HD</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>13000996</t>
+          <t>13000747</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Победа HD</t>
+          <t>Советское кино</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>13000747</t>
+          <t>13000810</t>
         </is>
       </c>
     </row>
@@ -3302,12 +3302,12 @@
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Советское кино</t>
+          <t>Кино ТВ HD</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>13000810</t>
+          <t>13000748</t>
         </is>
       </c>
     </row>
@@ -3319,12 +3319,12 @@
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Кино ТВ HD</t>
+          <t>День Победы HD</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>13000748</t>
+          <t>13000856</t>
         </is>
       </c>
     </row>
@@ -3336,12 +3336,12 @@
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>День Победы HD</t>
+          <t>VB Спецназ-Диверсант</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>13000856</t>
+          <t>13001185</t>
         </is>
       </c>
     </row>
@@ -3353,12 +3353,12 @@
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>VB Спецназ-Диверсант</t>
+          <t>Мир сериала</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>13001185</t>
+          <t>13000870</t>
         </is>
       </c>
     </row>
@@ -3370,12 +3370,12 @@
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Мир сериала</t>
+          <t>Твоё ТВ HD</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>13000870</t>
+          <t>13000618</t>
         </is>
       </c>
     </row>
@@ -3387,12 +3387,12 @@
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Твоё ТВ HD</t>
+          <t>Discovery HD</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>13000618</t>
+          <t>13000749</t>
         </is>
       </c>
     </row>
@@ -3404,12 +3404,12 @@
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Discovery HD</t>
+          <t>Discovery Science HD</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>13000749</t>
+          <t>13000752</t>
         </is>
       </c>
     </row>
@@ -3421,12 +3421,12 @@
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Discovery Science HD</t>
+          <t>English Club TV HD</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>13000752</t>
+          <t>13000751</t>
         </is>
       </c>
     </row>
@@ -3438,12 +3438,12 @@
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>English Club TV HD</t>
+          <t>History HD</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>13000751</t>
+          <t>13000753</t>
         </is>
       </c>
     </row>
@@ -3455,12 +3455,12 @@
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>History HD</t>
+          <t>H2 HD</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>13000753</t>
+          <t>13000754</t>
         </is>
       </c>
     </row>
@@ -3472,12 +3472,12 @@
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>H2 HD</t>
+          <t>ID Xtra HD</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>13000754</t>
+          <t>13000755</t>
         </is>
       </c>
     </row>
@@ -3489,12 +3489,12 @@
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>ID Xtra HD</t>
+          <t>National Geographic HD</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>13000755</t>
+          <t>13000756</t>
         </is>
       </c>
     </row>
@@ -3506,12 +3506,12 @@
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>National Geographic HD</t>
+          <t>Nat Geo Wild HD</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>13000756</t>
+          <t>13000214</t>
         </is>
       </c>
     </row>
@@ -3523,12 +3523,12 @@
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Nat Geo Wild HD</t>
+          <t>Animal Planet HD</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>13000214</t>
+          <t>13000806</t>
         </is>
       </c>
     </row>
@@ -3540,12 +3540,12 @@
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Animal Planet HD</t>
+          <t>RTG HD</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>13000806</t>
+          <t>13000757</t>
         </is>
       </c>
     </row>
@@ -3557,12 +3557,12 @@
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>RTG HD</t>
+          <t>Арсенал HD</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>13000757</t>
+          <t>13000863</t>
         </is>
       </c>
     </row>
@@ -3574,12 +3574,12 @@
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Арсенал HD</t>
+          <t>Viasat Explore HD</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>13000863</t>
+          <t>13000760</t>
         </is>
       </c>
     </row>
@@ -3591,12 +3591,12 @@
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Viasat Explore HD</t>
+          <t>Viasat History HD</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>13000760</t>
+          <t>13000761</t>
         </is>
       </c>
     </row>
@@ -3608,12 +3608,12 @@
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Viasat History HD</t>
+          <t>RT Doc HD</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>13000761</t>
+          <t>13000868</t>
         </is>
       </c>
     </row>
@@ -3625,12 +3625,12 @@
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>RT Doc HD</t>
+          <t>Viasat Nature HD</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>13000868</t>
+          <t>13000762</t>
         </is>
       </c>
     </row>
@@ -3642,12 +3642,12 @@
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Viasat Nature HD</t>
+          <t>Viasat Nature/History HD</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>13000762</t>
+          <t>13000763</t>
         </is>
       </c>
     </row>
@@ -3659,12 +3659,12 @@
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Viasat Nature/History HD</t>
+          <t>Ocean TV</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>13000763</t>
+          <t>13000793</t>
         </is>
       </c>
     </row>
@@ -3676,12 +3676,12 @@
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Ocean TV</t>
+          <t>Большая Азия HD</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>13000793</t>
+          <t>13000769</t>
         </is>
       </c>
     </row>
@@ -3693,12 +3693,12 @@
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Большая Азия HD</t>
+          <t>Первый Космический HD</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>13000769</t>
+          <t>13000612</t>
         </is>
       </c>
     </row>
@@ -3710,12 +3710,12 @@
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Первый Космический HD</t>
+          <t>Живая планета</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>13000612</t>
+          <t>13000794</t>
         </is>
       </c>
     </row>
@@ -3727,12 +3727,12 @@
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Живая планета</t>
+          <t>HDL</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>13000794</t>
+          <t>13000807</t>
         </is>
       </c>
     </row>
@@ -3744,12 +3744,12 @@
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>HDL</t>
+          <t>Еда Премиум HD</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>13000807</t>
+          <t>13000764</t>
         </is>
       </c>
     </row>
@@ -3761,12 +3761,12 @@
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Еда Премиум HD</t>
+          <t>А-24 HD</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>13000764</t>
+          <t>13000765</t>
         </is>
       </c>
     </row>
@@ -3778,12 +3778,12 @@
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>АВТО24 HD</t>
+          <t>Зал суда HD</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>13000765</t>
+          <t>13000707</t>
         </is>
       </c>
     </row>
@@ -3795,12 +3795,12 @@
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Зал суда HD</t>
+          <t>TLC HD</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>13000707</t>
+          <t>13000768</t>
         </is>
       </c>
     </row>
@@ -3812,12 +3812,12 @@
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>TLC HD</t>
+          <t>В мире животных HD</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>13000768</t>
+          <t>13000798</t>
         </is>
       </c>
     </row>
@@ -3829,12 +3829,12 @@
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>В мире животных HD</t>
+          <t>Вопросы и ответы</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>13000798</t>
+          <t>13000801</t>
         </is>
       </c>
     </row>
@@ -3846,12 +3846,12 @@
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Вопросы и ответы</t>
+          <t>Охота и рыбалка</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>13000801</t>
+          <t>13000766</t>
         </is>
       </c>
     </row>
@@ -3863,12 +3863,12 @@
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Охота и рыбалка</t>
+          <t>Загородная жизнь HD</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>13000766</t>
+          <t>13000808</t>
         </is>
       </c>
     </row>
@@ -3880,12 +3880,12 @@
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Загородная жизнь HD</t>
+          <t>Моя Планета HD</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>13000808</t>
+          <t>13000767</t>
         </is>
       </c>
     </row>
@@ -3897,12 +3897,12 @@
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Моя Планета HD</t>
+          <t>Диалоги о рыбалке HD</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>13000767</t>
+          <t>13000809</t>
         </is>
       </c>
     </row>
@@ -3914,12 +3914,12 @@
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Диалоги о рыбалке HD</t>
+          <t>Приключения HD</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>13000809</t>
+          <t>13000558</t>
         </is>
       </c>
     </row>
@@ -3931,12 +3931,12 @@
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Приключения HD</t>
+          <t>Поехали! HD</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>13000558</t>
+          <t>13000800</t>
         </is>
       </c>
     </row>
@@ -3948,12 +3948,12 @@
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Поехали! HD</t>
+          <t>Дикая рыбалка HD</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>13000800</t>
+          <t>13000666</t>
         </is>
       </c>
     </row>
@@ -3965,12 +3965,12 @@
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Дикая рыбалка HD</t>
+          <t>Дикая охота HD</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>13000666</t>
+          <t>13000669</t>
         </is>
       </c>
     </row>
@@ -3982,12 +3982,12 @@
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Дикая охота HD</t>
+          <t>Оружие</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>13000669</t>
+          <t>13000260</t>
         </is>
       </c>
     </row>
@@ -3999,12 +3999,12 @@
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Оружие</t>
+          <t>HGTV HD</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>13000260</t>
+          <t>13000203</t>
         </is>
       </c>
     </row>
@@ -4016,12 +4016,12 @@
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>HGTV HD</t>
+          <t>Глазами туриста HD</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>13000203</t>
+          <t>13000238</t>
         </is>
       </c>
     </row>
@@ -4033,12 +4033,12 @@
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Глазами туриста HD</t>
+          <t>Наука 2.0 HD</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>13000238</t>
+          <t>13000622</t>
         </is>
       </c>
     </row>
@@ -4050,12 +4050,12 @@
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Наука 2.0 HD</t>
+          <t>DTX HD</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>13000622</t>
+          <t>13000194</t>
         </is>
       </c>
     </row>
@@ -4067,12 +4067,12 @@
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>DTX HD</t>
+          <t>Мужской</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>13000194</t>
+          <t>13000802</t>
         </is>
       </c>
     </row>
@@ -4084,12 +4084,12 @@
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Мужской</t>
+          <t>История</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>13000802</t>
+          <t>13000815</t>
         </is>
       </c>
     </row>
@@ -4101,12 +4101,12 @@
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>История</t>
+          <t>Кто есть кто</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>13000815</t>
+          <t>13000827</t>
         </is>
       </c>
     </row>
@@ -4118,12 +4118,12 @@
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Кто есть кто</t>
+          <t>Travel+Adventure HD</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>13000827</t>
+          <t>13000858</t>
         </is>
       </c>
     </row>
@@ -4135,12 +4135,12 @@
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Travel+Adventure HD</t>
+          <t>365д</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>13000858</t>
+          <t>13000886</t>
         </is>
       </c>
     </row>
@@ -4152,12 +4152,12 @@
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>365 дней HD</t>
+          <t>Звезда Плюс HD</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>13000886</t>
+          <t>13000942</t>
         </is>
       </c>
     </row>
@@ -4169,12 +4169,12 @@
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Звезда Плюс HD</t>
+          <t>24 Техно</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>13000942</t>
+          <t>13000983</t>
         </is>
       </c>
     </row>
@@ -4186,12 +4186,12 @@
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>24 Техно</t>
+          <t>Театр HD</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>13000983</t>
+          <t>13000988</t>
         </is>
       </c>
     </row>
@@ -4203,12 +4203,12 @@
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Театр HD</t>
+          <t>Ностальгия</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>13000988</t>
+          <t>13000786</t>
         </is>
       </c>
     </row>
@@ -4220,12 +4220,12 @@
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Ностальгия</t>
+          <t>ZooПарк</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>13000786</t>
+          <t>13000989</t>
         </is>
       </c>
     </row>
@@ -4237,12 +4237,12 @@
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>ZooПарк</t>
+          <t>Ретро</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>13000989</t>
+          <t>13000785</t>
         </is>
       </c>
     </row>
@@ -4254,12 +4254,12 @@
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Ретро</t>
+          <t>Дикий</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>13000785</t>
+          <t>13000993</t>
         </is>
       </c>
     </row>
@@ -4271,12 +4271,12 @@
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Дикий</t>
+          <t>Анекдот ТВ</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>13000993</t>
+          <t>13000772</t>
         </is>
       </c>
     </row>
@@ -4288,12 +4288,12 @@
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Анекдот ТВ</t>
+          <t>Рыболов</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>13000772</t>
+          <t>13000994</t>
         </is>
       </c>
     </row>
@@ -4305,12 +4305,12 @@
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Рыболов</t>
+          <t>GagsNetwork HD</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>13000994</t>
+          <t>13000825</t>
         </is>
       </c>
     </row>
@@ -4322,12 +4322,12 @@
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Gags Network HD</t>
+          <t>Сарафан</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>13000825</t>
+          <t>13000784</t>
         </is>
       </c>
     </row>
@@ -4339,12 +4339,12 @@
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Сарафан</t>
+          <t>Суббота! HD</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>13000784</t>
+          <t>13000852</t>
         </is>
       </c>
     </row>
@@ -4356,12 +4356,12 @@
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Суббота! HD</t>
+          <t>КВН</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>13000852</t>
+          <t>13000085</t>
         </is>
       </c>
     </row>
@@ -4373,12 +4373,12 @@
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>КВН</t>
+          <t>Бобёр</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>13000085</t>
+          <t>13000235</t>
         </is>
       </c>
     </row>
@@ -4390,12 +4390,12 @@
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Бобёр</t>
+          <t>Тайны галактики HD</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>13000235</t>
+          <t>13000683</t>
         </is>
       </c>
     </row>
@@ -4407,12 +4407,12 @@
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Тайны галактики HD</t>
+          <t>Усадьба</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>13000683</t>
+          <t>13000682</t>
         </is>
       </c>
     </row>
@@ -4424,12 +4424,12 @@
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Усадьба</t>
+          <t>2x2</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>13000682</t>
+          <t>13000032</t>
         </is>
       </c>
     </row>
@@ -4441,12 +4441,12 @@
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2x2</t>
+          <t>Cartoonito</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>13000032</t>
+          <t>13000720</t>
         </is>
       </c>
     </row>
@@ -4458,12 +4458,12 @@
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Boomerang</t>
+          <t>Cartoon Network</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>13000720</t>
+          <t>13000172</t>
         </is>
       </c>
     </row>
@@ -4475,12 +4475,12 @@
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Cartoon Network</t>
+          <t>Советские мультфильмы</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>13000172</t>
+          <t>13000561</t>
         </is>
       </c>
     </row>
@@ -4492,12 +4492,12 @@
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Советские мультфильмы</t>
+          <t>Gulli Girl</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>13000561</t>
+          <t>13000173</t>
         </is>
       </c>
     </row>
@@ -4509,12 +4509,12 @@
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Gulli Girl</t>
+          <t>Ani</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>13000173</t>
+          <t>13000817</t>
         </is>
       </c>
     </row>
@@ -4526,12 +4526,12 @@
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Ani</t>
+          <t>Nickelodeon HD</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>13000817</t>
+          <t>13000177</t>
         </is>
       </c>
     </row>
@@ -4543,12 +4543,12 @@
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Nickelodeon HD</t>
+          <t>TiJi</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>13000177</t>
+          <t>13001167</t>
         </is>
       </c>
     </row>
@@ -4560,12 +4560,12 @@
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>TiJi</t>
+          <t>Солнце</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>13001167</t>
+          <t>13000037</t>
         </is>
       </c>
     </row>
@@ -4577,12 +4577,12 @@
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Солнце</t>
+          <t>Nick Jr.</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>13000037</t>
+          <t>13000804</t>
         </is>
       </c>
     </row>
@@ -4594,12 +4594,12 @@
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Nick Jr.</t>
+          <t>Кап. Фантастика HD</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>13000804</t>
+          <t>13000614</t>
         </is>
       </c>
     </row>
@@ -4611,12 +4611,12 @@
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Disney RU</t>
+          <t>Nickelodeon</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>13001172</t>
+          <t>13000805</t>
         </is>
       </c>
     </row>
@@ -4628,12 +4628,12 @@
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Кап. Фантастика HD</t>
+          <t>Мульт HD</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>13000614</t>
+          <t>13000181</t>
         </is>
       </c>
     </row>
@@ -4645,12 +4645,12 @@
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Nickelodeon</t>
+          <t>CTC Kids HD</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>13000805</t>
+          <t>13000818</t>
         </is>
       </c>
     </row>
@@ -4662,12 +4662,12 @@
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Мульт HD</t>
+          <t>JimJam</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>13000181</t>
+          <t>13000859</t>
         </is>
       </c>
     </row>
@@ -4679,12 +4679,12 @@
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>CTC Kids HD</t>
+          <t>О!</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>13000818</t>
+          <t>13000187</t>
         </is>
       </c>
     </row>
@@ -4696,12 +4696,12 @@
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>JimJam</t>
+          <t>Мультимузыка</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>13000859</t>
+          <t>13000866</t>
         </is>
       </c>
     </row>
@@ -4713,12 +4713,12 @@
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>О!</t>
+          <t>FAN HD</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>13000187</t>
+          <t>13000055</t>
         </is>
       </c>
     </row>
@@ -4730,12 +4730,12 @@
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Мультимузыка</t>
+          <t>Мультиландия</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>13000866</t>
+          <t>13000867</t>
         </is>
       </c>
     </row>
@@ -4747,12 +4747,12 @@
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>FAN HD</t>
+          <t>Рыжий</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>13000055</t>
+          <t>13000578</t>
         </is>
       </c>
     </row>
@@ -4764,12 +4764,12 @@
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Мультиландия</t>
+          <t>Радость моя</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>13000867</t>
+          <t>13000696</t>
         </is>
       </c>
     </row>
@@ -4781,12 +4781,12 @@
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Рыжий</t>
+          <t>Уникум!</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>13000578</t>
+          <t>13000865</t>
         </is>
       </c>
     </row>
@@ -4798,12 +4798,12 @@
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Радость моя</t>
+          <t>ПЕРВЫЙ +1</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>13000696</t>
+          <t>13000876</t>
         </is>
       </c>
     </row>
@@ -4815,12 +4815,12 @@
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Baby TV</t>
+          <t>ПЕРВЫЙ +2</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>13000941</t>
+          <t>13000831</t>
         </is>
       </c>
     </row>
@@ -4832,12 +4832,12 @@
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Уникум!</t>
+          <t>ПЕРВЫЙ +3</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>13000865</t>
+          <t>13000877</t>
         </is>
       </c>
     </row>
@@ -4849,12 +4849,12 @@
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>ПЕРВЫЙ +1</t>
+          <t>ПЕРВЫЙ +4</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>13000876</t>
+          <t>13000484</t>
         </is>
       </c>
     </row>
@@ -4866,12 +4866,12 @@
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>ПЕРВЫЙ +2</t>
+          <t>ПЕРВЫЙ +5</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>13000831</t>
+          <t>13000878</t>
         </is>
       </c>
     </row>
@@ -4883,12 +4883,12 @@
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>ПЕРВЫЙ +3</t>
+          <t>ПЕРВЫЙ +7</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>13000877</t>
+          <t>13000832</t>
         </is>
       </c>
     </row>
@@ -4900,12 +4900,12 @@
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>ПЕРВЫЙ +4</t>
+          <t>ПЕРВЫЙ +8</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>13000484</t>
+          <t>13000879</t>
         </is>
       </c>
     </row>
@@ -4917,12 +4917,12 @@
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>ПЕРВЫЙ +5</t>
+          <t>РОССИЯ-1 +1</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>13000878</t>
+          <t>13000010</t>
         </is>
       </c>
     </row>
@@ -4934,12 +4934,12 @@
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>ПЕРВЫЙ +7</t>
+          <t>РОССИЯ-1 +2</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>13000832</t>
+          <t>13000493</t>
         </is>
       </c>
     </row>
@@ -4951,12 +4951,12 @@
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>ПЕРВЫЙ +8</t>
+          <t>РОССИЯ-1 +4</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>13000879</t>
+          <t>13000494</t>
         </is>
       </c>
     </row>
@@ -4968,12 +4968,12 @@
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>РОССИЯ-1 +1</t>
+          <t>РОССИЯ-1 +9</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>13000010</t>
+          <t>13000495</t>
         </is>
       </c>
     </row>
@@ -4985,12 +4985,12 @@
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>РОССИЯ-1 +2</t>
+          <t>НТВ +2</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>13000493</t>
+          <t>13000829</t>
         </is>
       </c>
     </row>
@@ -5002,12 +5002,12 @@
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>РОССИЯ-1 +4</t>
+          <t>НТВ +7</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>13000494</t>
+          <t>13000830</t>
         </is>
       </c>
     </row>
@@ -5019,12 +5019,12 @@
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>РОССИЯ-1 +9</t>
+          <t>ТНТ +2</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>13000495</t>
+          <t>13000861</t>
         </is>
       </c>
     </row>
@@ -5036,12 +5036,12 @@
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>НТВ +2</t>
+          <t>ТНТ +4</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>13000829</t>
+          <t>13000882</t>
         </is>
       </c>
     </row>
@@ -5053,12 +5053,12 @@
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>НТВ +7</t>
+          <t>ТНТ +7</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>13000830</t>
+          <t>13000883</t>
         </is>
       </c>
     </row>
@@ -5070,12 +5070,12 @@
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>ТНТ +2</t>
+          <t>СТС +4</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>13000861</t>
+          <t>13000880</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>ТНТ +4</t>
+          <t>Пятница! +4</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>13000882</t>
+          <t>13000884</t>
         </is>
       </c>
     </row>
@@ -5104,12 +5104,12 @@
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>ТНТ +7</t>
+          <t>Пятница! +6</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>13000883</t>
+          <t>13000885</t>
         </is>
       </c>
     </row>
@@ -5121,12 +5121,12 @@
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>СТС +4</t>
+          <t>RU.TV HD</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>13000880</t>
+          <t>13000154</t>
         </is>
       </c>
     </row>
@@ -5138,12 +5138,12 @@
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Пятница! +4</t>
+          <t>1HD Music Television</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>13000884</t>
+          <t>13000675</t>
         </is>
       </c>
     </row>
@@ -5155,12 +5155,12 @@
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Пятница! +6</t>
+          <t>Europa Plus TV HD</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>13000885</t>
+          <t>13000812</t>
         </is>
       </c>
     </row>
@@ -5172,12 +5172,12 @@
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>RU.TV HD</t>
+          <t>Bridge Classic</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>13000154</t>
+          <t>13000141</t>
         </is>
       </c>
     </row>
@@ -5189,12 +5189,12 @@
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>1HD Music Television</t>
+          <t>Russian MusicBox HD</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>13000675</t>
+          <t>13000813</t>
         </is>
       </c>
     </row>
@@ -5206,12 +5206,12 @@
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Europa Plus TV HD</t>
+          <t>VB Dance Hits of 90s</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>13000812</t>
+          <t>13001181</t>
         </is>
       </c>
     </row>
@@ -5223,12 +5223,12 @@
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Bridge Classic</t>
+          <t>Bridge Hits</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>13000141</t>
+          <t>13000143</t>
         </is>
       </c>
     </row>
@@ -5240,12 +5240,12 @@
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Russian MusicBox HD</t>
+          <t>VB Eurodance Hits 90s</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>13000813</t>
+          <t>13001182</t>
         </is>
       </c>
     </row>
@@ -5257,12 +5257,12 @@
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>VB Dance Hits of 90s</t>
+          <t>Bridge Русский Хит</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>13001181</t>
+          <t>13000144</t>
         </is>
       </c>
     </row>
@@ -5274,12 +5274,12 @@
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Bridge Hits</t>
+          <t>VB Русская попса 80х-90х</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>13000143</t>
+          <t>13001187</t>
         </is>
       </c>
     </row>
@@ -5291,12 +5291,12 @@
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>VB Eurodance Hits 90s</t>
+          <t>Bridge Deluxe HD</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>13001182</t>
+          <t>13000142</t>
         </is>
       </c>
     </row>
@@ -5308,12 +5308,12 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Bridge Русский Хит</t>
+          <t>4ever Music HD</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>13000144</t>
+          <t>13000833</t>
         </is>
       </c>
     </row>
@@ -5325,12 +5325,12 @@
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>VB Русская попса 80х-90х</t>
+          <t>VB Best Live Performances</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>13001187</t>
+          <t>13001190</t>
         </is>
       </c>
     </row>
@@ -5342,12 +5342,12 @@
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Bridge Deluxe HD</t>
+          <t>Bridge</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>13000142</t>
+          <t>13000140</t>
         </is>
       </c>
     </row>
@@ -5359,12 +5359,12 @@
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>4ever Music HD</t>
+          <t>Bridge Rock</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>13000833</t>
+          <t>13001008</t>
         </is>
       </c>
     </row>
@@ -5376,12 +5376,12 @@
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>VB Best Live Performances</t>
+          <t>VB MTV OLD</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>13001190</t>
+          <t>13001193</t>
         </is>
       </c>
     </row>
@@ -5393,12 +5393,12 @@
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Bridge</t>
+          <t>Bridge Шлягер</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>13000140</t>
+          <t>13000619</t>
         </is>
       </c>
     </row>
@@ -5410,12 +5410,12 @@
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Bridge Rock</t>
+          <t>VB Russian Dance Hits of 90</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>13001008</t>
+          <t>13001194</t>
         </is>
       </c>
     </row>
@@ -5427,12 +5427,12 @@
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>VB MTV OLD</t>
+          <t>VB Greatest Hits</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>13001193</t>
+          <t>13001195</t>
         </is>
       </c>
     </row>
@@ -5444,12 +5444,12 @@
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Bridge Шлягер</t>
+          <t>VB Romantic and Ballads</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>13000619</t>
+          <t>13001196</t>
         </is>
       </c>
     </row>
@@ -5461,12 +5461,12 @@
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>VB Russian Dance Hits of 90</t>
+          <t>Музыка Первого</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>13001194</t>
+          <t>13000790</t>
         </is>
       </c>
     </row>
@@ -5478,12 +5478,12 @@
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>VB Greatest Hits</t>
+          <t>РОК НАРЯД HD</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>13001195</t>
+          <t>13000658</t>
         </is>
       </c>
     </row>
@@ -5495,12 +5495,12 @@
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>VB Romantic and Ballads</t>
+          <t>MCM-TOP</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>13001196</t>
+          <t>13000803</t>
         </is>
       </c>
     </row>
@@ -5512,12 +5512,12 @@
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Музыка Первого</t>
+          <t>MTV 80's</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>13000790</t>
+          <t>13000158</t>
         </is>
       </c>
     </row>
@@ -5529,12 +5529,12 @@
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>РОК НАРЯД HD</t>
+          <t>О!2</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>13000658</t>
+          <t>13000814</t>
         </is>
       </c>
     </row>
@@ -5546,12 +5546,12 @@
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>MCM-TOP</t>
+          <t>MTV 90's</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>13000803</t>
+          <t>13000151</t>
         </is>
       </c>
     </row>
@@ -5563,12 +5563,12 @@
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>MTV 80's</t>
+          <t>MTV Club</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>13000158</t>
+          <t>13000147</t>
         </is>
       </c>
     </row>
@@ -5580,12 +5580,12 @@
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>О!2</t>
+          <t>Clubbing TV HD</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>13000814</t>
+          <t>13000837</t>
         </is>
       </c>
     </row>
@@ -5597,12 +5597,12 @@
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>MTV 90's</t>
+          <t>MTV Hits</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>13000151</t>
+          <t>13000149</t>
         </is>
       </c>
     </row>
@@ -5614,12 +5614,12 @@
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>MTV Club</t>
+          <t>Жара HD</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>13000147</t>
+          <t>13000860</t>
         </is>
       </c>
     </row>
@@ -5631,12 +5631,12 @@
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Clubbing TV HD</t>
+          <t>iConcerts HD</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>13000837</t>
+          <t>13000944</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5648,12 @@
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>MTV Hits</t>
+          <t>Stingray CMusic HD</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>13000149</t>
+          <t>13000945</t>
         </is>
       </c>
     </row>
@@ -5665,12 +5665,12 @@
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Жара HD</t>
+          <t>MTV 00's</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>13000860</t>
+          <t>13000159</t>
         </is>
       </c>
     </row>
@@ -5682,12 +5682,12 @@
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>iConcerts HD</t>
+          <t>ТНТ Music HD</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>13000944</t>
+          <t>13000685</t>
         </is>
       </c>
     </row>
@@ -5699,12 +5699,12 @@
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Stingray CMusic HD</t>
+          <t>Шансон-ТВ</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>13000945</t>
+          <t>13000679</t>
         </is>
       </c>
     </row>
@@ -5716,12 +5716,12 @@
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>MTV 00's</t>
+          <t>Жар Птица</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>13000159</t>
+          <t>13000928</t>
         </is>
       </c>
     </row>
@@ -5733,12 +5733,12 @@
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>ТНТ Music HD</t>
+          <t>Karloson TV Том и Джерри HD</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>13000685</t>
+          <t>13000977</t>
         </is>
       </c>
     </row>
@@ -5750,12 +5750,12 @@
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Шансон-ТВ</t>
+          <t>Karloson TV Чёрный плащ HD</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>13000679</t>
+          <t>13000982</t>
         </is>
       </c>
     </row>
@@ -5767,12 +5767,12 @@
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Жар Птица</t>
+          <t>VIP Comedy HD CEE</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>13000928</t>
+          <t>13001030</t>
         </is>
       </c>
     </row>
@@ -5784,12 +5784,12 @@
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Karloson TV Том и Джерри HD</t>
+          <t>VIP Megahit HD CEE</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>13000977</t>
+          <t>13001031</t>
         </is>
       </c>
     </row>
@@ -5801,12 +5801,12 @@
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Karloson TV Чёрный плащ HD</t>
+          <t>Тайна</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>13000982</t>
+          <t>13001033</t>
         </is>
       </c>
     </row>
@@ -5818,12 +5818,12 @@
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>VIP Comedy HD CEE</t>
+          <t>C-Cartoon HD</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>13001030</t>
+          <t>13001035</t>
         </is>
       </c>
     </row>
@@ -5835,12 +5835,12 @@
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>VIP Megahit HD CEE</t>
+          <t>C-Inquest HD</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>13001031</t>
+          <t>13001036</t>
         </is>
       </c>
     </row>
@@ -5852,12 +5852,12 @@
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>VIP Premiere HD CEE</t>
+          <t>C-Comedy HD</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>13001032</t>
+          <t>13001037</t>
         </is>
       </c>
     </row>
@@ -5869,12 +5869,12 @@
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Тайна</t>
+          <t>YOSSO TV MUSIC HITS HD</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>13001033</t>
+          <t>13001038</t>
         </is>
       </c>
     </row>
@@ -5886,12 +5886,12 @@
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>C-Cartoon HD</t>
+          <t>YOSSO TV OBLIVION HD</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>13001035</t>
+          <t>13001039</t>
         </is>
       </c>
     </row>
@@ -5903,12 +5903,12 @@
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>C-Inquest HD</t>
+          <t>Рен ТВ (+4)</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>13001036</t>
+          <t>13001041</t>
         </is>
       </c>
     </row>
@@ -5920,12 +5920,12 @@
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>C-Comedy HD</t>
+          <t>Рен ТВ (+7)</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>13001037</t>
+          <t>13001042</t>
         </is>
       </c>
     </row>
@@ -5937,12 +5937,12 @@
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>YOSSO TV MUSIC HITS HD</t>
+          <t>TV1000 World Kino</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>13001038</t>
+          <t>13001043</t>
         </is>
       </c>
     </row>
@@ -5954,12 +5954,12 @@
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>YOSSO TV OBLIVION HD</t>
+          <t>TV1000 CEE HD</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>13001039</t>
+          <t>13001044</t>
         </is>
       </c>
     </row>
@@ -5971,12 +5971,12 @@
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Рен ТВ (+4)</t>
+          <t>TV1000 Action CEE HD</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>13001041</t>
+          <t>13001045</t>
         </is>
       </c>
     </row>
@@ -5988,12 +5988,12 @@
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Рен ТВ (+7)</t>
+          <t>Футбольный HD</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>13001042</t>
+          <t>13001046</t>
         </is>
       </c>
     </row>
@@ -6005,12 +6005,12 @@
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>TV1000 World Kino</t>
+          <t>Хоккейный HD</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>13001043</t>
+          <t>13001047</t>
         </is>
       </c>
     </row>
@@ -6022,12 +6022,12 @@
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>TV1000 CEE HD</t>
+          <t>Спортивный HD</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>13001044</t>
+          <t>13001048</t>
         </is>
       </c>
     </row>
@@ -6039,12 +6039,12 @@
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>TV1000 Action CEE HD</t>
+          <t>Синема HD</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>13001045</t>
+          <t>13001049</t>
         </is>
       </c>
     </row>
@@ -6056,12 +6056,12 @@
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Футбольный HD</t>
+          <t>Kernel TV Леди Баг HD</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>13001046</t>
+          <t>13001052</t>
         </is>
       </c>
     </row>
@@ -6073,12 +6073,12 @@
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Хоккейный HD</t>
+          <t>Kernel TV Маша и Медведь HD</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>13001047</t>
+          <t>13001053</t>
         </is>
       </c>
     </row>
@@ -6090,12 +6090,12 @@
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Спортивный HD</t>
+          <t>Kernel TV Драконы и всадники Олуха HD</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>13001048</t>
+          <t>13001054</t>
         </is>
       </c>
     </row>
@@ -6107,12 +6107,12 @@
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Синема HD</t>
+          <t>Kernel TV Царевны HD</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>13001049</t>
+          <t>13001055</t>
         </is>
       </c>
     </row>
@@ -6124,12 +6124,12 @@
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Kernel TV Леди Баг HD</t>
+          <t>Kernel TV Человек-паук 2012 HD</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>13001052</t>
+          <t>13001056</t>
         </is>
       </c>
     </row>
@@ -6141,12 +6141,12 @@
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Kernel TV Маша и Медведь HD</t>
+          <t>ПЕРВЫЙ +6</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>13001053</t>
+          <t>13001057</t>
         </is>
       </c>
     </row>
@@ -6158,12 +6158,12 @@
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Kernel TV Драконы и всадники Олуха HD</t>
+          <t>Kernel TV Финес и Ферб HD</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>13001054</t>
+          <t>13001058</t>
         </is>
       </c>
     </row>
@@ -6175,12 +6175,12 @@
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Kernel TV Царевны HD</t>
+          <t>Kernel TV Люк - путешественник во времени HD</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>13001055</t>
+          <t>13001059</t>
         </is>
       </c>
     </row>
@@ -6192,12 +6192,12 @@
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Kernel TV Человек-паук 2012 HD</t>
+          <t>Kernel TV Смешарики HD</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>13001056</t>
+          <t>13001060</t>
         </is>
       </c>
     </row>
@@ -6209,12 +6209,12 @@
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>ПЕРВЫЙ +6</t>
+          <t>Kernel TV Команда Турбо HD</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>13001057</t>
+          <t>13001061</t>
         </is>
       </c>
     </row>
@@ -6226,12 +6226,12 @@
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Kernel TV Финес и Ферб HD</t>
+          <t>Kernel TV Гравити Фолз HD</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>13001058</t>
+          <t>13001063</t>
         </is>
       </c>
     </row>
@@ -6243,12 +6243,12 @@
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Kernel TV Люк - путешественник во времени HD</t>
+          <t>Kernel TV Фиксики HD</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>13001059</t>
+          <t>13001064</t>
         </is>
       </c>
     </row>
@@ -6260,12 +6260,12 @@
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Kernel TV Смешарики HD</t>
+          <t>Kernel TV Лило и Стич HD</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>13001060</t>
+          <t>13001065</t>
         </is>
       </c>
     </row>
@@ -6277,12 +6277,12 @@
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Kernel TV Команда Турбо HD</t>
+          <t>Kernel TV Том и Джерри HD</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>13001061</t>
+          <t>13001066</t>
         </is>
       </c>
     </row>
@@ -6294,12 +6294,12 @@
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Kernel TV Гравити Фолз HD</t>
+          <t>Kernel TV Три кота HD</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>13001063</t>
+          <t>13001067</t>
         </is>
       </c>
     </row>
@@ -6311,12 +6311,12 @@
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Kernel TV Фиксики HD</t>
+          <t>Kernel TV Футурама HD</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>13001064</t>
+          <t>13001070</t>
         </is>
       </c>
     </row>
@@ -6328,12 +6328,12 @@
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Kernel TV Лило и Стич HD</t>
+          <t>Тип-Топ HD</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>13001065</t>
+          <t>13001071</t>
         </is>
       </c>
     </row>
@@ -6345,12 +6345,12 @@
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Kernel TV Том и Джерри HD</t>
+          <t>Ю (+2)</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>13001066</t>
+          <t>13001073</t>
         </is>
       </c>
     </row>
@@ -6362,12 +6362,12 @@
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Kernel TV Три кота HD</t>
+          <t>Ю (+4)</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>13001067</t>
+          <t>13001074</t>
         </is>
       </c>
     </row>
@@ -6379,12 +6379,12 @@
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Kernel TV Футурама HD</t>
+          <t>Ю (+7)</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>13001070</t>
+          <t>13001075</t>
         </is>
       </c>
     </row>
@@ -6396,12 +6396,12 @@
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Тип-Топ HD</t>
+          <t>Первый канал HD (+4)</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>13001071</t>
+          <t>13001076</t>
         </is>
       </c>
     </row>
@@ -6413,12 +6413,12 @@
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Ю (+2)</t>
+          <t>Сваты 24/7</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>13001073</t>
+          <t>13001077</t>
         </is>
       </c>
     </row>
@@ -6430,12 +6430,12 @@
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Ю (+4)</t>
+          <t>НТВ Хит</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>13001074</t>
+          <t>13001078</t>
         </is>
       </c>
     </row>
@@ -6447,12 +6447,12 @@
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Ю (+7)</t>
+          <t>НТВ Стиль</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>13001075</t>
+          <t>13001079</t>
         </is>
       </c>
     </row>
@@ -6464,12 +6464,12 @@
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Первый канал HD (+4)</t>
+          <t>НТВ Сериал</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>13001076</t>
+          <t>13001080</t>
         </is>
       </c>
     </row>
@@ -6481,12 +6481,12 @@
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Сваты 24/7</t>
+          <t>НТВ Право</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>13001077</t>
+          <t>13001081</t>
         </is>
       </c>
     </row>
@@ -6498,12 +6498,12 @@
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>НТВ Хит</t>
+          <t>Мир баскетбола</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>13001078</t>
+          <t>13001084</t>
         </is>
       </c>
     </row>
@@ -6515,12 +6515,12 @@
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>НТВ Стиль</t>
+          <t>Еврокино</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>13001079</t>
+          <t>13001085</t>
         </is>
       </c>
     </row>
@@ -6532,12 +6532,12 @@
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>НТВ Сериал</t>
+          <t>Старт HD</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>13001080</t>
+          <t>13001086</t>
         </is>
       </c>
     </row>
@@ -6549,12 +6549,12 @@
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>НТВ Право</t>
+          <t>Viasat Explore CEE HD</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>13001081</t>
+          <t>13001087</t>
         </is>
       </c>
     </row>
@@ -6566,12 +6566,12 @@
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Filmzone HD</t>
+          <t>Food Network HD</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>13001082</t>
+          <t>13001090</t>
         </is>
       </c>
     </row>
@@ -6583,12 +6583,12 @@
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Filmzone+ HD</t>
+          <t>Доктор</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>13001083</t>
+          <t>13001091</t>
         </is>
       </c>
     </row>
@@ -6600,12 +6600,12 @@
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Мир баскетбола</t>
+          <t>Индия</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>13001084</t>
+          <t>13001092</t>
         </is>
       </c>
     </row>
@@ -6617,12 +6617,12 @@
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Еврокино</t>
+          <t>NHL Network HD</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>13001085</t>
+          <t>13001093</t>
         </is>
       </c>
     </row>
@@ -6634,12 +6634,12 @@
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Старт HD</t>
+          <t>Домашний Int.</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>13001086</t>
+          <t>13001094</t>
         </is>
       </c>
     </row>
@@ -6651,12 +6651,12 @@
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Viasat Explore CEE HD</t>
+          <t>СуперГерои</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>13001087</t>
+          <t>13001095</t>
         </is>
       </c>
     </row>
@@ -6668,12 +6668,12 @@
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Food Network HD</t>
+          <t>Fast Fun Box HD</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>13001090</t>
+          <t>13001096</t>
         </is>
       </c>
     </row>
@@ -6685,12 +6685,12 @@
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Доктор</t>
+          <t>Индийское кино</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>13001091</t>
+          <t>13001097</t>
         </is>
       </c>
     </row>
@@ -6702,12 +6702,12 @@
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Индия</t>
+          <t>Наше HD</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>13001092</t>
+          <t>13001098</t>
         </is>
       </c>
     </row>
@@ -6719,12 +6719,12 @@
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>NHL Network HD</t>
+          <t>Живая природа HD</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>13001093</t>
+          <t>13001100</t>
         </is>
       </c>
     </row>
@@ -6736,12 +6736,12 @@
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Домашний Int.</t>
+          <t>Лёва HD</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>13001094</t>
+          <t>13001101</t>
         </is>
       </c>
     </row>
@@ -6753,12 +6753,12 @@
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>СуперГерои</t>
+          <t>Song TV Russia HD</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>13001095</t>
+          <t>13001102</t>
         </is>
       </c>
     </row>
@@ -6770,12 +6770,12 @@
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Fast Fun Box HD</t>
+          <t>Пингвин</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>13001096</t>
+          <t>13001104</t>
         </is>
       </c>
     </row>
@@ -6787,12 +6787,12 @@
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Индийское кино</t>
+          <t>Еда</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>13001097</t>
+          <t>13001105</t>
         </is>
       </c>
     </row>
@@ -6804,12 +6804,12 @@
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Наше HD</t>
+          <t>Родное кино</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>13001098</t>
+          <t>13001106</t>
         </is>
       </c>
     </row>
@@ -6821,12 +6821,12 @@
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>BBC World News HD</t>
+          <t>К-Хит HD</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>13001099</t>
+          <t>13001107</t>
         </is>
       </c>
     </row>
@@ -6838,12 +6838,12 @@
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Живая природа HD</t>
+          <t>Зоо ТВ</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>13001100</t>
+          <t>13001108</t>
         </is>
       </c>
     </row>
@@ -6855,12 +6855,12 @@
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Лёва HD</t>
+          <t>Живи Активно HD</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>13001101</t>
+          <t>13001110</t>
         </is>
       </c>
     </row>
@@ -6872,12 +6872,12 @@
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Song TV Russia HD</t>
+          <t>Живи! HD</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>13001102</t>
+          <t>13001111</t>
         </is>
       </c>
     </row>
@@ -6889,12 +6889,12 @@
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Disney Junior</t>
+          <t>Карусель HD</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>13001103</t>
+          <t>13001112</t>
         </is>
       </c>
     </row>
@@ -6906,12 +6906,12 @@
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Пингвин</t>
+          <t>Classic Music HD</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>13001104</t>
+          <t>13001113</t>
         </is>
       </c>
     </row>
@@ -6923,12 +6923,12 @@
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Еда</t>
+          <t>9 канал Израиль</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>13001105</t>
+          <t>13001118</t>
         </is>
       </c>
     </row>
@@ -6940,12 +6940,12 @@
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Родное кино</t>
+          <t>Nicktoons</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>13001106</t>
+          <t>13001119</t>
         </is>
       </c>
     </row>
@@ -6957,12 +6957,12 @@
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>Кинохит HD</t>
+          <t>ТНТ Int</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>13001107</t>
+          <t>13001120</t>
         </is>
       </c>
     </row>
@@ -6974,12 +6974,12 @@
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Зоо ТВ</t>
+          <t>Дорама HD</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>13001108</t>
+          <t>13001121</t>
         </is>
       </c>
     </row>
@@ -6991,12 +6991,12 @@
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Balticum Platinum HD</t>
+          <t>Shot TV</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>13001109</t>
+          <t>13001122</t>
         </is>
       </c>
     </row>
@@ -7008,12 +7008,12 @@
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Живи Активно HD</t>
+          <t>Filmbox</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>13001110</t>
+          <t>13001123</t>
         </is>
       </c>
     </row>
@@ -7025,12 +7025,12 @@
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Живи! HD</t>
+          <t>Иллюзион+ HD</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>13001111</t>
+          <t>13001124</t>
         </is>
       </c>
     </row>
@@ -7042,12 +7042,12 @@
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Карусель HD</t>
+          <t>К-Серия HD</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>13001112</t>
+          <t>13001125</t>
         </is>
       </c>
     </row>
@@ -7059,12 +7059,12 @@
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>Classic Music HD</t>
+          <t>AIVA HD</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>13001113</t>
+          <t>13001126</t>
         </is>
       </c>
     </row>
@@ -7076,12 +7076,12 @@
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>9 канал Израиль</t>
+          <t>MyZenTV HD</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>13001118</t>
+          <t>13001129</t>
         </is>
       </c>
     </row>
@@ -7093,12 +7093,12 @@
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Nicktoons</t>
+          <t>MTV Live HD</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>13001119</t>
+          <t>13001133</t>
         </is>
       </c>
     </row>
@@ -7110,12 +7110,12 @@
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>ТНТ Int</t>
+          <t>Da Vinci</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>13001120</t>
+          <t>13001134</t>
         </is>
       </c>
     </row>
@@ -7127,12 +7127,12 @@
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Дорама HD</t>
+          <t>А-Плюс HD</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>13001121</t>
+          <t>13001135</t>
         </is>
       </c>
     </row>
@@ -7144,12 +7144,12 @@
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Shot TV</t>
+          <t>Кухня ТВ HD</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>13001122</t>
+          <t>13001137</t>
         </is>
       </c>
     </row>
@@ -7161,12 +7161,12 @@
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Filmbox</t>
+          <t>Travel Channel HD</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>13001123</t>
+          <t>13001138</t>
         </is>
       </c>
     </row>
@@ -7178,12 +7178,12 @@
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Иллюзион+ HD</t>
+          <t>Viva Russia HD</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>13001124</t>
+          <t>13001141</t>
         </is>
       </c>
     </row>
@@ -7195,12 +7195,12 @@
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Киносерия HD</t>
+          <t>Hollywood HD</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>13001125</t>
+          <t>13001142</t>
         </is>
       </c>
     </row>
@@ -7212,12 +7212,12 @@
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>AIVA HD</t>
+          <t>Chiplduk Барбоскины</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>13001126</t>
+          <t>13001143</t>
         </is>
       </c>
     </row>
@@ -7229,12 +7229,12 @@
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>Epic Drama HD</t>
+          <t>C-Live HD</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>13001128</t>
+          <t>13001144</t>
         </is>
       </c>
     </row>
@@ -7246,12 +7246,12 @@
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>MyZenTV HD</t>
+          <t>Kernel TV За гранью HD</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>13001129</t>
+          <t>13001145</t>
         </is>
       </c>
     </row>
@@ -7263,12 +7263,12 @@
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>MTV Live HD</t>
+          <t>Kernel TV Сверхьестественное HD</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>13001133</t>
+          <t>13001146</t>
         </is>
       </c>
     </row>
@@ -7280,12 +7280,12 @@
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>Da Vinci</t>
+          <t>Kernel TV Во все тяжкие HD</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>13001134</t>
+          <t>13001147</t>
         </is>
       </c>
     </row>
@@ -7297,12 +7297,12 @@
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>АВТО Плюс HD</t>
+          <t>Kernel TV Бумажный дом HD</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>13001135</t>
+          <t>13001148</t>
         </is>
       </c>
     </row>
@@ -7314,12 +7314,12 @@
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Кухня ТВ HD</t>
+          <t>Karloson TV Губка Боб HD</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>13001137</t>
+          <t>13001149</t>
         </is>
       </c>
     </row>
@@ -7331,12 +7331,12 @@
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Travel Channel HD</t>
+          <t>Karloson TV Щенячий Патруль HD</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>13001138</t>
+          <t>13001150</t>
         </is>
       </c>
     </row>
@@ -7348,12 +7348,12 @@
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Viva Russia HD</t>
+          <t>Karloson TV Интерны HD</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>13001141</t>
+          <t>13001151</t>
         </is>
       </c>
     </row>
@@ -7365,12 +7365,12 @@
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Hollywood HD</t>
+          <t>Karloson TV My Little Pony HD</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>13001142</t>
+          <t>13001152</t>
         </is>
       </c>
     </row>
@@ -7382,12 +7382,12 @@
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Chiplduk Барбоскины</t>
+          <t>Karloson TV Супер-крылья Джетт HD</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>13001143</t>
+          <t>13001153</t>
         </is>
       </c>
     </row>
@@ -7399,12 +7399,12 @@
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>C-Live HD</t>
+          <t>Karloson TV Утиные истории HD</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>13001144</t>
+          <t>13001154</t>
         </is>
       </c>
     </row>
@@ -7416,12 +7416,12 @@
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Kernel TV За гранью HD</t>
+          <t>Karloson TV Симпсоны HD</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>13001145</t>
+          <t>13001155</t>
         </is>
       </c>
     </row>
@@ -7433,12 +7433,12 @@
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Kernel TV Сверхьестественное HD</t>
+          <t>Karloson TV Чип и Дейл HD</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>13001146</t>
+          <t>13001156</t>
         </is>
       </c>
     </row>
@@ -7450,12 +7450,12 @@
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Kernel TV Во все тяжкие HD</t>
+          <t>Karloson TV Южный Парк HD</t>
         </is>
       </c>
       <c r="C414" t="inlineStr">
         <is>
-          <t>13001147</t>
+          <t>13001157</t>
         </is>
       </c>
     </row>
@@ -7467,12 +7467,12 @@
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Kernel TV Бумажный дом HD</t>
+          <t>М! Футбол 1 orig</t>
         </is>
       </c>
       <c r="C415" t="inlineStr">
         <is>
-          <t>13001148</t>
+          <t>13001158</t>
         </is>
       </c>
     </row>
@@ -7484,12 +7484,12 @@
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Karloson TV Губка Боб HD</t>
+          <t>М! Футбол 2 orig</t>
         </is>
       </c>
       <c r="C416" t="inlineStr">
         <is>
-          <t>13001149</t>
+          <t>13001159</t>
         </is>
       </c>
     </row>
@@ -7501,12 +7501,12 @@
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Karloson TV Щенячий Патруль HD</t>
+          <t>М! Футбол 3 orig</t>
         </is>
       </c>
       <c r="C417" t="inlineStr">
         <is>
-          <t>13001150</t>
+          <t>13001160</t>
         </is>
       </c>
     </row>
@@ -7518,12 +7518,12 @@
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Karloson TV Интерны HD</t>
+          <t>М! orig</t>
         </is>
       </c>
       <c r="C418" t="inlineStr">
         <is>
-          <t>13001151</t>
+          <t>13001165</t>
         </is>
       </c>
     </row>
@@ -7535,12 +7535,12 @@
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Karloson TV My Little Pony HD</t>
+          <t>М! Премьер orig</t>
         </is>
       </c>
       <c r="C419" t="inlineStr">
         <is>
-          <t>13001152</t>
+          <t>13001166</t>
         </is>
       </c>
     </row>
@@ -7552,12 +7552,12 @@
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Karloson TV Супер-крылья Джетт HD</t>
+          <t>Kernel TV Буба HD</t>
         </is>
       </c>
       <c r="C420" t="inlineStr">
         <is>
-          <t>13001153</t>
+          <t>13001168</t>
         </is>
       </c>
     </row>
@@ -7569,12 +7569,12 @@
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Karloson TV Утиные истории HD</t>
+          <t>Успех</t>
         </is>
       </c>
       <c r="C421" t="inlineStr">
         <is>
-          <t>13001154</t>
+          <t>13001169</t>
         </is>
       </c>
     </row>
@@ -7586,12 +7586,12 @@
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Karloson TV Симпсоны HD</t>
+          <t>Охотник и Рыболов HD</t>
         </is>
       </c>
       <c r="C422" t="inlineStr">
         <is>
-          <t>13001155</t>
+          <t>13001170</t>
         </is>
       </c>
     </row>
@@ -7603,12 +7603,12 @@
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Karloson TV Чип и Дейл HD</t>
+          <t>ducktv HD</t>
         </is>
       </c>
       <c r="C423" t="inlineStr">
         <is>
-          <t>13001156</t>
+          <t>13001173</t>
         </is>
       </c>
     </row>
@@ -7620,12 +7620,12 @@
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>Karloson TV Южный Парк HD</t>
+          <t>KIDS TV HD</t>
         </is>
       </c>
       <c r="C424" t="inlineStr">
         <is>
-          <t>13001157</t>
+          <t>13001174</t>
         </is>
       </c>
     </row>
@@ -7637,12 +7637,12 @@
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>М! Футбол 1 orig</t>
+          <t>CuriosityStream HD</t>
         </is>
       </c>
       <c r="C425" t="inlineStr">
         <is>
-          <t>13001158</t>
+          <t>13001175</t>
         </is>
       </c>
     </row>
@@ -7654,12 +7654,12 @@
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>М! Футбол 2 orig</t>
+          <t>Food Bloggers TV</t>
         </is>
       </c>
       <c r="C426" t="inlineStr">
         <is>
-          <t>13001159</t>
+          <t>13001176</t>
         </is>
       </c>
     </row>
@@ -7671,12 +7671,12 @@
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>М! Футбол 3 orig</t>
+          <t>Karloson TV Аладдин</t>
         </is>
       </c>
       <c r="C427" t="inlineStr">
         <is>
-          <t>13001160</t>
+          <t>13001197</t>
         </is>
       </c>
     </row>
@@ -7688,12 +7688,12 @@
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>Матч! orig</t>
+          <t>M2O</t>
         </is>
       </c>
       <c r="C428" t="inlineStr">
         <is>
-          <t>13001165</t>
+          <t>13001198</t>
         </is>
       </c>
     </row>
@@ -7705,12 +7705,12 @@
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>М! Премьер orig</t>
+          <t>Ritsa TV HD</t>
         </is>
       </c>
       <c r="C429" t="inlineStr">
         <is>
-          <t>13001166</t>
+          <t>13001199</t>
         </is>
       </c>
     </row>
@@ -7722,12 +7722,12 @@
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>Kernel TV Буба HD</t>
+          <t>Mafi2a Music</t>
         </is>
       </c>
       <c r="C430" t="inlineStr">
         <is>
-          <t>13001168</t>
+          <t>13001200</t>
         </is>
       </c>
     </row>
@@ -7739,12 +7739,12 @@
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>Успех</t>
+          <t>LO-FI Music Radio</t>
         </is>
       </c>
       <c r="C431" t="inlineStr">
         <is>
-          <t>13001169</t>
+          <t>13001201</t>
         </is>
       </c>
     </row>
@@ -7756,12 +7756,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Охотник и Рыболов HD</t>
+          <t>Полный Чипльдук</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>13001170</t>
+          <t>11000035</t>
         </is>
       </c>
     </row>
@@ -7773,12 +7773,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>ducktv HD</t>
+          <t>Electro Swing Radio</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>13001173</t>
+          <t>11000041</t>
         </is>
       </c>
     </row>
@@ -7790,95 +7790,10 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>KIDS TV HD</t>
+          <t>Локальный IGMP</t>
         </is>
       </c>
       <c r="C434" t="inlineStr">
-        <is>
-          <t>13001174</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>433</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>CuriosityStream HD</t>
-        </is>
-      </c>
-      <c r="C435" t="inlineStr">
-        <is>
-          <t>13001175</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>434</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>Food Bloggers TV</t>
-        </is>
-      </c>
-      <c r="C436" t="inlineStr">
-        <is>
-          <t>13001176</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>435</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>Полный Чипльдук</t>
-        </is>
-      </c>
-      <c r="C437" t="inlineStr">
-        <is>
-          <t>11000035</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>436</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>Electro Swing Radio</t>
-        </is>
-      </c>
-      <c r="C438" t="inlineStr">
-        <is>
-          <t>11000041</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>437</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>Локальный IGMP</t>
-        </is>
-      </c>
-      <c r="C439" t="inlineStr">
         <is>
           <t>11000048</t>
         </is>

--- a/4duk_channels.xlsx
+++ b/4duk_channels.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C434"/>
+  <dimension ref="A1:C435"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -7756,12 +7756,12 @@
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>Полный Чипльдук</t>
+          <t>Santa</t>
         </is>
       </c>
       <c r="C432" t="inlineStr">
         <is>
-          <t>11000035</t>
+          <t>13001203</t>
         </is>
       </c>
     </row>
@@ -7773,12 +7773,12 @@
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>Electro Swing Radio</t>
+          <t>Полный Чипльдук</t>
         </is>
       </c>
       <c r="C433" t="inlineStr">
         <is>
-          <t>11000041</t>
+          <t>11000035</t>
         </is>
       </c>
     </row>
@@ -7790,10 +7790,27 @@
       </c>
       <c r="B434" t="inlineStr">
         <is>
+          <t>Electro Swing Radio</t>
+        </is>
+      </c>
+      <c r="C434" t="inlineStr">
+        <is>
+          <t>11000041</t>
+        </is>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>433</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
           <t>Локальный IGMP</t>
         </is>
       </c>
-      <c r="C434" t="inlineStr">
+      <c r="C435" t="inlineStr">
         <is>
           <t>11000048</t>
         </is>
